--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D870E2E-5682-4F61-98FE-C3358E7AFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A259C-1694-41AC-80A0-3278BDF30150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="5352" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="1020" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>long</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>Event5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I love China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,12 +423,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
   </cols>
@@ -436,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -484,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -501,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -518,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -535,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A259C-1694-41AC-80A0-3278BDF30150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C18FD-1DFB-4BCC-A7FD-7DE452256AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1020" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1716" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C18FD-1DFB-4BCC-A7FD-7DE452256AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E7FF2-3AE2-450C-BB28-780032F7B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1716" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>long</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1001,1002,1003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Event2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,14 @@
   </si>
   <si>
     <t>I love China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,102,103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -434,7 +438,7 @@
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,13 +449,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -467,8 +474,11 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -476,81 +486,96 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E7FF2-3AE2-450C-BB28-780032F7B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5381B8-E995-4F9B-95F4-FA7F83BF958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>long</t>
   </si>
@@ -82,12 +82,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[101,102,103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody know China better than me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,102,103,105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event6</t>
   </si>
 </sst>
 </file>
@@ -424,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
   </cols>
@@ -475,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,16 +573,36 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5381B8-E995-4F9B-95F4-FA7F83BF958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DB3CF-EA07-4E57-B1A3-80E05B0E09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>long</t>
   </si>
@@ -95,6 +95,52 @@
   </si>
   <si>
     <t>Event6</t>
+  </si>
+  <si>
+    <t>Drag your units to draw a route to move them. The further they move, the longer it takes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_02</t>
+  </si>
+  <si>
+    <t>Tutorial_03</t>
+  </si>
+  <si>
+    <t>Tutorial_04</t>
+  </si>
+  <si>
+    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
+Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows). Different roles will have different support skills.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[113]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[114]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,13 +189,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,6 +663,86 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>201</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>202</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>203</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>204</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DB3CF-EA07-4E57-B1A3-80E05B0E09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC85DC9-CE09-4413-8E67-46A6AABBE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>long</t>
   </si>
@@ -140,6 +140,161 @@
   </si>
   <si>
     <t>[114]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander: “Ceasefire!”
+The sound of gunshots dwindles.
+After dropping a dozen bodies, one after another, the Enemy must realize that this attack is unlikely to succeed. The remaining enemies cover each other as they retreat, leaving weapons and ammunition scattered all over the battleground.
+Obviously, it was not a good idea to go after the Enemy. While the Enemy retreats, you hurriedly count your warriors.
+Commander: “Report the count! One!”
+You secretly pray that there will be no casualties from the battle just now.
+Liu Jianxin: “Two…!”
+The familiar voices report one by one.
+The Medic: “Three…!”
+You breathe a silent sigh of relief.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown: “Four!”
+An unfamiliar and childish voice rings out from the battlefield. Startled, you and your Squad look towards the sound of the voice. You see a Teenager slowly crawling out from behind the rocks.
+He was one of the folks from the Village who came to deliver supplies last time! Your Squad is overjoyed to see him still alive.
+He is lying on the ground, in a terrible state. The rags that cover his body are mixed with blood and mud. His hands are clutching a bag.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You motion to your Squad with your hand toward the bag. Liu Jianxin hesitates for a moment, then grabs for the bag. The Teenager resists at first, but then relents. Upon inspection, you and your Squad see that it contains some magazines, medicines, and a few steamed buns.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You crawl toward him.
+Commander: “Kid, where is your dad?”
+You see that the Teenager’s face is blackened by the smoke and filled with tears.
+The Teenager holds back the tears, but there is still a choke in his voice.
+Teenager: “We…encountered a bombardment on our way back. Dad saved me…”
+He does not say more, but you all understand what happened…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teenager: “Let me stay here! I want to fight too! I want REVENGE! I’m not afraid to die!”
+The tears from the Teenager’s eyes mix with the blood and dust on his clothing. But the will in his eyes is firm. The spark of hatred shines from them.
+Liu Jianxin suddenly gets up.
+Liu Jianxin: “No way. You’ve gotta live. Don’t stay here.”
+The Medic: “You must be kidding?! He’s just a kid: do you expect him to cross the blockade again? Let him stay here. At least here we can protect him.”
+Liu Jianxin (determined): “Then I’ll escort him back! It won’t take much time: I’ll just send him to the blockade line, and then he can return to his village on his own.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You look at the Teenager.
+To protect the Motherland and its people is the duty of all her soldiers. It is the hope that folks won’t need to suffer the ravages of war again. The same hope that supports the will of you and your Squad to fight in this hell.
+You do not doubt the Teenager’s hatred and determination to fight. But do you want him to stay in this dangerous battleground?
+But then again, if the father was dead, it meant they were discovered crossing the artillery blockade. Which means that the enemy was more alert. Asking the Teenager to go back by himself is unsafe. Even if he really isn’t afraid to die. So perhaps it is necessary to send someone to escort him through the blockade line…?
+No one speaks again. The only sound echoing in the air are the sobs that the Teenager is trying and failing to hold back. Your Squad looks to their commander…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After a moment of silence, you finally manage to speak up.
+Commander: “Liu Jianxin, you send him back.”
+Teenager (shouting excitedly): “No! Why?! I can fight! This is my home; I want to fight!”
+Commander: “I understand your pain and hatred. I really do. But you must live, son. We didn’t protect your father. But at least we can protect you. Don’t die for hatred. Live so that there is hope.”
+You gesture to the rest of the Squad.
+Commander: “There may come a day when you will need to fight, but for now, it’s not your turn to make that sacrifice.”
+You hope that day will never come, you silently add.
+Despite the Teenager’s objections, Liu Jianxin picks up his gun and leads the Teenager out of position.
+Peace returns to the hill…or at least, until the next wave of enemies appears…
+[Result: Liu Jianxin is gone for 1 minute. He will reappear in the open field near the command post.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander: “Let him stay.”
+Liu Jianxin: “Commander…!”
+Liu Jianxin rarely gets so emotional.
+Liu Jianxin: “It’s too dangerous here! We can’t let him stay here!”
+Commander: “This is also his homeland; this is also his fight. Since he has the readiness and determination, he has the right to fight. We need every bit of strength to hold this position. That is the only duty we all have today. Don’t forget! Behind us is our Motherland!”
+You turn to the Teenager.
+Commander: “You can escort the wounded and carry ammunition to the rear. But when the Enemy appears, I want you to hide in the command post. I don’t want you anywhere near the frontline.”
+Teenager: “Yes, sir!”
+Though his voice is loud and firm, he can’t hide the childish heartbreak. You kneel in front of the Teenager.
+Commander: “Son, I promise you: we will avenge your father.”
+You hug the Teenager.
+Commander: “We will win.”
+The Teenager wipes away his tears, showing the fire now in his eyes. He gives a quick salute and begins collecting the ammo left behind on the battlefield. The exhausted Squad, even Liu Jianxin, are inspired by the Teenager’s patriotism. They will continue the fight.
+[Result: The Morale of The Medic increases by 1 Rank. Liu Jianxin’s Morale remains unchanged.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander: “Get out of here. Go home.”
+Liu Jianxin: “Without protection?!”
+The Medic: “Sir, he’s just a KID…?!”
+Commander: “Yes, a kid. A kid we cannot afford to worry about while defending our post! We can’t spare the manpower. I need every soldier I have!”
+Teenager: “Exactly! I can help!”
+Commander: “No, you can’t.”
+Teenager: “This is unfair! I want to fight for my home! I…!”
+Commander (forceful): “War is not about what is FAIR!”
+You point down the hill in the direction of the village.
+Commander (insistent): “Your HOME is down there, not up here! I know you’re struggling, but this is not a battle you can win! Stop and go home!”
+Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…
+[Result: The morale of all Squad members decreases by 1 Rank.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[201]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[202,203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[204]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[205]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[206]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[207,208,209]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,16 +644,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="37.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
   </cols>
@@ -723,14 +879,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4">
@@ -740,6 +896,186 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>301</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>302</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>999</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>303</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>999</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>304</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>999</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>305</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>999</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>306</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4">
+        <v>999</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>307</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4">
+        <v>999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>999</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>308</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>999</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>309</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4">
+        <v>999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>999</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC85DC9-CE09-4413-8E67-46A6AABBE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF260C84-01FD-4847-A087-156C71D7E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>long</t>
   </si>
@@ -229,6 +229,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[201]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[202,203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[204]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[205]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[206]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[207,208,209]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[211]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[212]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>After a moment of silence, you finally manage to speak up.
 Commander: “Liu Jianxin, you send him back.”
 Teenager (shouting excitedly): “No! Why?! I can fight! This is my home; I want to fight!”
@@ -237,8 +273,7 @@
 Commander: “There may come a day when you will need to fight, but for now, it’s not your turn to make that sacrifice.”
 You hope that day will never come, you silently add.
 Despite the Teenager’s objections, Liu Jianxin picks up his gun and leads the Teenager out of position.
-Peace returns to the hill…or at least, until the next wave of enemies appears…
-[Result: Liu Jianxin is gone for 1 minute. He will reappear in the open field near the command post.]</t>
+Peace returns to the hill…or at least, until the next wave of enemies appears…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,8 +289,7 @@
 Commander: “Son, I promise you: we will avenge your father.”
 You hug the Teenager.
 Commander: “We will win.”
-The Teenager wipes away his tears, showing the fire now in his eyes. He gives a quick salute and begins collecting the ammo left behind on the battlefield. The exhausted Squad, even Liu Jianxin, are inspired by the Teenager’s patriotism. They will continue the fight.
-[Result: The Morale of The Medic increases by 1 Rank. Liu Jianxin’s Morale remains unchanged.]</t>
+The Teenager wipes away his tears, showing the fire now in his eyes. He gives a quick salute and begins collecting the ammo left behind on the battlefield. The exhausted Squad, even Liu Jianxin, are inspired by the Teenager’s patriotism. They will continue the fight.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,32 +303,7 @@
 Commander (forceful): “War is not about what is FAIR!”
 You point down the hill in the direction of the village.
 Commander (insistent): “Your HOME is down there, not up here! I know you’re struggling, but this is not a battle you can win! Stop and go home!”
-Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…
-[Result: The morale of all Squad members decreases by 1 Rank.]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[202,203]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[204]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[205]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[206]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[207,208,209]</t>
+Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -819,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -839,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -859,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -913,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
@@ -933,7 +942,7 @@
         <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
@@ -953,7 +962,7 @@
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -973,7 +982,7 @@
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>15</v>
@@ -993,7 +1002,7 @@
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>15</v>
@@ -1013,33 +1022,33 @@
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
-      <c r="E19" s="4">
-        <v>999</v>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>308</v>
       </c>
@@ -1047,19 +1056,19 @@
         <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
       </c>
-      <c r="E20" s="4">
-        <v>999</v>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="207" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>309</v>
       </c>
@@ -1067,13 +1076,13 @@
         <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
-      <c r="E21" s="4">
-        <v>999</v>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>15</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF260C84-01FD-4847-A087-156C71D7E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F809C-CE7A-4029-9C69-08D547748CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,6 +666,7 @@
     <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -765,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,8 +845,8 @@
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -864,8 +865,8 @@
       <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -884,8 +885,8 @@
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -904,8 +905,8 @@
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -924,8 +925,8 @@
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -944,8 +945,8 @@
       <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -964,8 +965,8 @@
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -984,8 +985,8 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1004,8 +1005,8 @@
       <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="138" x14ac:dyDescent="0.25">
@@ -1024,8 +1025,8 @@
       <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,8 +1045,8 @@
       <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
@@ -1064,8 +1065,8 @@
       <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="207" x14ac:dyDescent="0.25">
@@ -1084,8 +1085,8 @@
       <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F809C-CE7A-4029-9C69-08D547748CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68436792-F3CD-462B-B32B-48DA7965DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68436792-F3CD-462B-B32B-48DA7965DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E73AB-766F-417A-82B7-8B159553B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>long</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Tutorial_02</t>
-  </si>
-  <si>
-    <t>Tutorial_03</t>
   </si>
   <si>
     <t>Tutorial_04</t>
@@ -193,75 +190,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Village_Teenager_1_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[201]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[202,203]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[204]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[205]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[206]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[207,208,209]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[211]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[212]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>You look at the Teenager.
 To protect the Motherland and its people is the duty of all her soldiers. It is the hope that folks won’t need to suffer the ravages of war again. The same hope that supports the will of you and your Squad to fight in this hell.
 You do not doubt the Teenager’s hatred and determination to fight. But do you want him to stay in this dangerous battleground?
-But then again, if the father was dead, it meant they were discovered crossing the artillery blockade. Which means that the enemy was more alert. Asking the Teenager to go back by himself is unsafe. Even if he really isn’t afraid to die. So perhaps it is necessary to send someone to escort him through the blockade line…?
+But then again, asking the Teenager to go back by himself is unsafe. Even if he really isn’t afraid to die. 
 No one speaks again. The only sound echoing in the air are the sobs that the Teenager is trying and failing to hold back. Your Squad looks to their commander…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Village_Teenager_1_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_3_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_6_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_6_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_1_6_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[201]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[202,203]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[204]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[205]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[206]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[207,208,209]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[210]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[211]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[212]</t>
+    <t>Village_Teenager_01</t>
+  </si>
+  <si>
+    <t>Village_Teenager_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,21 +282,33 @@
 Teenager (shouting excitedly): “No! Why?! I can fight! This is my home; I want to fight!”
 Commander: “I understand your pain and hatred. I really do. But you must live, son. We didn’t protect your father. But at least we can protect you. Don’t die for hatred. Live so that there is hope.”
 You gesture to the rest of the Squad.
-Commander: “There may come a day when you will need to fight, but for now, it’s not your turn to make that sacrifice.”
+Commander: “Maybe one day you will need to fight, but for now, it’s not your turn to make that sacrifice.”
 You hope that day will never come, you silently add.
 Despite the Teenager’s objections, Liu Jianxin picks up his gun and leads the Teenager out of position.
 Peace returns to the hill…or at least, until the next wave of enemies appears…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Commander: “Let him stay.”
+    <t>Village_Teenager_1_6_B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Commander: “Let him stay.”
 Liu Jianxin: “Commander…!”
 Liu Jianxin rarely gets so emotional.
 Liu Jianxin: “It’s too dangerous here! We can’t let him stay here!”
 Commander: “This is also his homeland; this is also his fight. Since he has the readiness and determination, he has the right to fight. We need every bit of strength to hold this position. That is the only duty we all have today. Don’t forget! Behind us is our Motherland!”
 You turn to the Teenager.
 Commander: “You can escort the wounded and carry ammunition to the rear. But when the Enemy appears, I want you to hide in the command post. I don’t want you anywhere near the frontline.”
-Teenager: “Yes, sir!”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teenager: “Yes, sir!”
 Though his voice is loud and firm, he can’t hide the childish heartbreak. You kneel in front of the Teenager.
 Commander: “Son, I promise you: we will avenge your father.”
 You hug the Teenager.
@@ -293,7 +317,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Commander: “Get out of here. Go home.”
+    <t>Village_Teenager_1_6_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Commander: “Get out of here. Go home.”
 Liu Jianxin: “Without protection?!”
 The Medic: “Sir, he’s just a KID…?!”
 Commander: “Yes, a kid. A kid we cannot afford to worry about while defending our post! We can’t spare the manpower. I need every soldier I have!”
@@ -303,7 +335,19 @@
 Commander (forceful): “War is not about what is FAIR!”
 You point down the hill in the direction of the village.
 Commander (insistent): “Your HOME is down there, not up here! I know you’re struggling, but this is not a battle you can win! Stop and go home!”
-Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[213]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[214]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +416,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,11 +703,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -666,7 +714,7 @@
     <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +733,7 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -705,7 +753,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -725,7 +773,7 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -745,7 +793,7 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -765,7 +813,7 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -785,7 +833,7 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -805,7 +853,7 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -825,7 +873,7 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -843,9 +891,9 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -857,16 +905,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -874,19 +922,19 @@
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -894,19 +942,19 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -914,19 +962,19 @@
         <v>301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -934,19 +982,19 @@
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4">
         <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -954,19 +1002,19 @@
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -974,19 +1022,19 @@
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -994,39 +1042,39 @@
         <v>305</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,59 +1082,99 @@
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>308</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="207" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>309</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>310</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4">
+        <v>999</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>311</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>999</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E73AB-766F-417A-82B7-8B159553B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80554F9E-3A9A-4D18-87E3-ECAB3E9F6823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>long</t>
   </si>
@@ -109,19 +109,6 @@
   </si>
   <si>
     <t>Tutorial_04</t>
-  </si>
-  <si>
-    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
-Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows). Different roles will have different support skills.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[111]</t>
@@ -348,6 +335,92 @@
   </si>
   <si>
     <t>[214]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombardment gradually subsided. From past experience, another wave of the enemy infantry will soon arrive. The sound of gunfire can be vaguely heard from the 8th Platoon's position.
+"Something’s wrong, why didn't the 8th Platoon inform the size of the enemy attack?" As the commander commanded the soldiers to repair the fortifications destroyed by the artillery fire, his heart felt a pang of apprehension.
+A few moments later, the communicator who crawled out of the trench brought the worst news.
+"Commander! The telephone line was broken by the artillery attack!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
+Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. 
+Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows).
+ Different roles will have different support skills.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[301]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_2</t>
+  </si>
+  <si>
+    <t>Apparently, the communicator could now receive neither alert from the 8th Platoon nor any instructions from the command center. For this moment, the entire battle ground became an isolated island cut off from the outside world, and all that could be heard was the sound of gunfire coming from afar.
+"Immediately locate the break and prepare to repair it!"
+The enemy infantry would soon arrive, and it was uncertain whether they would be able to repair the telephone line before they arrived. And no matter who was to undertake this task, he had to leave his position and venture into the enemy's fire range.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[302]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3</t>
+  </si>
+  <si>
+    <t>"I'll go." Liu Jianxin and the engineer vocalized at the same time, and then both looked at the commander.
+Liu Jianxin was clearly the better fighter, not only was he excellent in combat, but he never said anything in the face of dangerous tasks; but to fix the phone line, perhaps the engineer was more familiar with these kind of work and could fix it in time before the enemy came.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liu, go ahead." The commander looked directly into Liu Jianxin's eyes, as if he wanted to see through his inner thoughts. "But you must come back alive. This is an order."
+Their eyes met for a short moment; Liu Jianxin nodded gently. Then, he picked up his gun, took the wiring tools from the engineer, and left the position without looking back.
+Liu Jianxin always likes to take on the most dangerous tasks, is he really not afraid of death?
+Looking at his back, this thought flashed through the commander's mind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[303,304]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[999]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[305]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +495,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -891,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -905,39 +984,39 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -945,16 +1024,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -962,19 +1041,19 @@
         <v>301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -982,19 +1061,19 @@
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
         <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1002,19 +1081,19 @@
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1022,19 +1101,19 @@
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4">
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1042,19 +1121,19 @@
         <v>305</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -1062,19 +1141,19 @@
         <v>306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,19 +1161,19 @@
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -1102,19 +1181,19 @@
         <v>308</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -1122,19 +1201,19 @@
         <v>309</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
@@ -1142,19 +1221,19 @@
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1162,19 +1241,119 @@
         <v>311</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>401</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>402</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4">
+        <v>999</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>403</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4">
+        <v>999</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>404</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4">
+        <v>999</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>405</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4">
+        <v>999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80554F9E-3A9A-4D18-87E3-ECAB3E9F6823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E73AB-766F-417A-82B7-8B159553B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>long</t>
   </si>
@@ -109,6 +109,19 @@
   </si>
   <si>
     <t>Tutorial_04</t>
+  </si>
+  <si>
+    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
+Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows). Different roles will have different support skills.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[111]</t>
@@ -335,92 +348,6 @@
   </si>
   <si>
     <t>[214]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bombardment gradually subsided. From past experience, another wave of the enemy infantry will soon arrive. The sound of gunfire can be vaguely heard from the 8th Platoon's position.
-"Something’s wrong, why didn't the 8th Platoon inform the size of the enemy attack?" As the commander commanded the soldiers to repair the fortifications destroyed by the artillery fire, his heart felt a pang of apprehension.
-A few moments later, the communicator who crawled out of the trench brought the worst news.
-"Commander! The telephone line was broken by the artillery attack!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
-Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. 
-Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows).
- Different roles will have different support skills.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[301]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_2</t>
-  </si>
-  <si>
-    <t>Apparently, the communicator could now receive neither alert from the 8th Platoon nor any instructions from the command center. For this moment, the entire battle ground became an isolated island cut off from the outside world, and all that could be heard was the sound of gunfire coming from afar.
-"Immediately locate the break and prepare to repair it!"
-The enemy infantry would soon arrive, and it was uncertain whether they would be able to repair the telephone line before they arrived. And no matter who was to undertake this task, he had to leave his position and venture into the enemy's fire range.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[302]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_3</t>
-  </si>
-  <si>
-    <t>"I'll go." Liu Jianxin and the engineer vocalized at the same time, and then both looked at the commander.
-Liu Jianxin was clearly the better fighter, not only was he excellent in combat, but he never said anything in the face of dangerous tasks; but to fix the phone line, perhaps the engineer was more familiar with these kind of work and could fix it in time before the enemy came.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_4_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liu, go ahead." The commander looked directly into Liu Jianxin's eyes, as if he wanted to see through his inner thoughts. "But you must come back alive. This is an order."
-Their eyes met for a short moment; Liu Jianxin nodded gently. Then, he picked up his gun, took the wiring tools from the engineer, and left the position without looking back.
-Liu Jianxin always likes to take on the most dangerous tasks, is he really not afraid of death?
-Looking at his back, this thought flashed through the commander's mind.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[303,304]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To be continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[305]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,12 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -970,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -984,39 +905,39 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1024,16 +945,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -1041,19 +962,19 @@
         <v>301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -1061,19 +982,19 @@
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4">
         <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1081,19 +1002,19 @@
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -1101,19 +1022,19 @@
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="4">
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1121,19 +1042,19 @@
         <v>305</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -1141,19 +1062,19 @@
         <v>306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,19 +1082,19 @@
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
@@ -1181,19 +1102,19 @@
         <v>308</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -1201,19 +1122,19 @@
         <v>309</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
@@ -1221,19 +1142,19 @@
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1241,119 +1162,19 @@
         <v>311</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>401</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="4">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>402</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4">
-        <v>999</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>403</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="4">
-        <v>999</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>404</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4">
-        <v>999</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>405</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="4">
-        <v>999</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E73AB-766F-417A-82B7-8B159553B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42BFDE-B57C-406B-BED7-F76A4B450C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>long</t>
   </si>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>[214]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody know killing better than me</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -865,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42BFDE-B57C-406B-BED7-F76A4B450C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B624E-21BE-452D-AA76-C1794074C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>long</t>
   </si>
@@ -352,6 +352,78 @@
   </si>
   <si>
     <t>Nobody know killing better than me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombardment gradually subsided. From past experience, another wave of the enemy infantry will soon arrive. The sound of gunfire can be vaguely heard from the 8th Platoon's position.
+"Something’s wrong, why didn't the 8th Platoon inform the size of the enemy attack?" As the commander commanded the soldiers to repair the fortifications destroyed by the artillery fire, his heart felt a pang of apprehension.
+A few moments later, the communicator who crawled out of the trench brought the worst news.
+"Commander! The telephone line was broken by the artillery attack!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_01</t>
+  </si>
+  <si>
+    <t>Dangerous_Mission_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparently, the communicator could now receive neither alert from the 8th Platoon nor any instructions from the command center. For this moment, the entire battle ground became an isolated island cut off from the outside world, and all that could be heard was the sound of gunfire coming from afar.
+"Immediately locate the break and prepare to repair it!"
+The enemy infantry would soon arrive, and it was uncertain whether they would be able to repair the telephone line before they arrived. And no matter who was to undertake this task, he had to leave his position and venture into the enemy's fire range.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"I'll go." Liu Jianxin and the engineer vocalized at the same time, and then both looked at the commander.
+Liu Jianxin was clearly the better fighter, not only was he excellent in combat, but he never said anything in the face of dangerous tasks; but to fix the phone line, perhaps the engineer was more familiar with these kind of work and could fix it in time before the enemy came.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liu, go ahead." The commander looked directly into Liu Jianxin's eyes, as if he wanted to see through his inner thoughts. "But you must come back alive. This is an order."
+Their eyes met for a short moment; Liu Jianxin nodded gently. Then, he picked up his gun, took the wiring tools from the engineer, and left the position without looking back.
+Liu Jianxin always likes to take on the most dangerous tasks, is he really not afraid of death?
+Looking at his back, this thought flashed through the commander's mind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[301]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[302]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[303,304]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[305]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +498,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1261,106 @@
         <v>56</v>
       </c>
     </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>401</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>402</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4">
+        <v>999</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>403</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="4">
+        <v>999</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>404</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4">
+        <v>999</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>405</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4">
+        <v>999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0B624E-21BE-452D-AA76-C1794074C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF228529-3ACB-4365-AD8F-718467D66E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,13 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dangerous_Mission_01</t>
-  </si>
-  <si>
-    <t>Dangerous_Mission_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apparently, the communicator could now receive neither alert from the 8th Platoon nor any instructions from the command center. For this moment, the entire battle ground became an isolated island cut off from the outside world, and all that could be heard was the sound of gunfire coming from afar.
 "Immediately locate the break and prepare to repair it!"
 The enemy infantry would soon arrive, and it was uncertain whether they would be able to repair the telephone line before they arrived. And no matter who was to undertake this task, he had to leave his position and venture into the enemy's fire range.</t>
@@ -424,6 +417,13 @@
   </si>
   <si>
     <t>[305]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_0_1</t>
+  </si>
+  <si>
+    <t>Dangerous_Mission_0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -851,8 +851,8 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="4">
+        <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -871,8 +871,8 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="4">
+        <v>999</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -891,8 +891,8 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
+      <c r="D5" s="4">
+        <v>999</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -911,8 +911,8 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
+      <c r="D6" s="4">
+        <v>999</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -931,8 +931,8 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
+      <c r="D7" s="4">
+        <v>999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -951,8 +951,8 @@
       <c r="C8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1">
-        <v>6</v>
+      <c r="D8" s="4">
+        <v>999</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
@@ -1275,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -1286,19 +1286,19 @@
         <v>402</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4">
         <v>999</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1306,19 +1306,19 @@
         <v>403</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1326,19 +1326,19 @@
         <v>404</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1346,19 +1346,19 @@
         <v>405</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF228529-3ACB-4365-AD8F-718467D66E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18810E3A-1A3E-4E16-9AFD-A504C064813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>999</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18810E3A-1A3E-4E16-9AFD-A504C064813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF3679-F4F7-4AF9-9624-EA90ED1566AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>long</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>Dangerous_Mission_0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A teenager from nearby village appeared on the battleground unexpectedly. He seemed to have brought some supply and food.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[215,216]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,23 +797,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -841,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -861,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -881,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -901,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -921,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -941,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -961,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -981,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1041,315 +1053,315 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>301</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>999</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4">
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>305</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="4">
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>308</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4">
+        <v>999</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>309</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4">
-        <v>999</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="4">
+        <v>999</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>309</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4">
-        <v>999</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="111" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4">
+        <v>999</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>311</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="4">
-        <v>999</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D23" s="4">
+        <v>999</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>311</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4">
-        <v>999</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
+        <v>312</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4">
+        <v>999</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
         <v>401</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>9</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>402</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4">
-        <v>999</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
@@ -1358,6 +1370,26 @@
         <v>83</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>405</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4">
+        <v>999</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF3679-F4F7-4AF9-9624-EA90ED1566AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0775A30-FA1F-4528-8096-CF024F6598EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,6 @@
     <t>Village_Teenager_01</t>
   </si>
   <si>
-    <t>Village_Teenager_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After a moment of silence, you finally manage to speak up.
 Commander: “Liu Jianxin, you send him back.”
 Teenager (shouting excitedly): “No! Why?! I can fight! This is my home; I want to fight!”
@@ -436,6 +432,10 @@
   </si>
   <si>
     <t>[215,216]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,21 +799,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -873,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -913,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -933,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -953,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -961,7 +961,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4">
         <v>999</v>
@@ -973,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -993,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1053,27 +1053,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>302</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>303</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>304</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>305</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>306</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>307</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>308</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
@@ -1213,15 +1213,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>309</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
@@ -1230,38 +1230,38 @@
         <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="111" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="180.4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>311</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
@@ -1273,124 +1273,124 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>312</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>401</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>405</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D29" s="4">
         <v>999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF3679-F4F7-4AF9-9624-EA90ED1566AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358B6B6-275F-496C-B135-2042BA5E2D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>long</t>
   </si>
@@ -436,6 +436,18 @@
   </si>
   <si>
     <t>[215,216]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The phone cable is broken by a bombardment. Some one should go to fix it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[306,307]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1084,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>42</v>
@@ -1293,21 +1305,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>401</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>70</v>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>84</v>
@@ -1318,70 +1330,70 @@
         <v>402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>405</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4">
         <v>999</v>
@@ -1390,6 +1402,26 @@
         <v>83</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>406</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0775A30-FA1F-4528-8096-CF024F6598EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58BF631-BB1C-47DF-8100-FA0E7A9D468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>long</t>
   </si>
@@ -436,6 +436,18 @@
   </si>
   <si>
     <t>Village_Teenager_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The telephone cable is destoryed by a bombardment. Some one should go to fix it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[306,307]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,23 +809,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="31.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -873,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -893,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -913,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -933,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -953,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -973,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>301</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>302</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>42</v>
@@ -1093,8 +1105,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1113,7 +1125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>304</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>305</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>306</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>307</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>308</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>309</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="111" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>310</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>311</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>312</v>
       </c>
@@ -1293,95 +1305,95 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>401</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>405</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4">
         <v>999</v>
@@ -1390,6 +1402,26 @@
         <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>406</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58BF631-BB1C-47DF-8100-FA0E7A9D468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E3F0B4-AAFD-4C12-ACA9-489E2A0C74D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5508" yWindow="1056" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[111]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[112]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[113]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +440,14 @@
   </si>
   <si>
     <t>[306,307]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[111,308]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[112,309]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,21 +811,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="31.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -865,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -925,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -945,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -965,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -973,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4">
         <v>999</v>
@@ -985,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -999,13 +999,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1019,18 +1019,18 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -1039,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1059,370 +1059,370 @@
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
         <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4">
         <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4">
         <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4">
         <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>307</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4">
         <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="138.75" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>308</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="152.65" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>309</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="111" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="180.4" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>311</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>312</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="4">
+        <v>999</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4">
-        <v>999</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>401</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>402</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>403</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>404</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="124.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>405</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4">
         <v>999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>406</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4">
         <v>999</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E3F0B4-AAFD-4C12-ACA9-489E2A0C74D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C6C12-7A64-4B25-A4DC-28CA12C5F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="1056" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>long</t>
   </si>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dangerous_Mission_2_4_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To be continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +407,6 @@
     <t>Dangerous_Mission_0_1</t>
   </si>
   <si>
-    <t>Dangerous_Mission_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +440,18 @@
   </si>
   <si>
     <t>[112,309]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造了一个弹药箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色开打</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
@@ -1019,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>49</v>
@@ -1070,16 +1074,16 @@
         <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>54</v>
@@ -1242,7 +1246,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -1262,7 +1266,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
@@ -1310,19 +1314,19 @@
         <v>401</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1339,10 +1343,10 @@
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1359,10 +1363,10 @@
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -1379,10 +1383,10 @@
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -1399,10 +1403,10 @@
         <v>999</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1410,19 +1414,79 @@
         <v>406</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D30" s="4">
         <v>999</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>82</v>
+    </row>
+    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>407</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>408</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>409</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C6C12-7A64-4B25-A4DC-28CA12C5F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B778F-284D-44C0-8395-F686E03E88EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
   <si>
     <t>long</t>
   </si>
@@ -103,12 +103,6 @@
   <si>
     <t>Tutorial_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_02</t>
-  </si>
-  <si>
-    <t>Tutorial_04</t>
   </si>
   <si>
     <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
@@ -247,10 +241,6 @@
   </si>
   <si>
     <t>Tutorial_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,6 +443,110 @@
   <si>
     <t>角色开打</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_01（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_02（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_03（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_04（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_02</t>
+  </si>
+  <si>
+    <t>NewTutorial_03</t>
+  </si>
+  <si>
+    <t>NewTutorial_04</t>
+  </si>
+  <si>
+    <t>NewTutorial_05</t>
+  </si>
+  <si>
+    <t>NewTutorial_06</t>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+  </si>
+  <si>
+    <t>NewTutorial_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move: Drag units to move.The longer the route you draw, the longer it will take that unit to move there.
+Camera: WASD/Arrows to move camera; Scroll mouse wheels to zoom in/out
+Now try to move your unit to the tile with a flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When your units enter a tile controlled by an enemy unit, they will fight untill one of them die or retreat. 
+You can retreat a unit by move it away from the fight.
+Now move your unit to fight the enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
+  Morale: Unit with higher morale level will deal more damage.
+  Ammo: Units will constantly consume ammo during combat. If a unit runs out of ammo, the damage they deal will decrease.
+You can view one's morale and ammo by hover your mouse on them
+    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
+Your units have different roles, which means each unit offers unique support skills. 
+You can view a unit's buff by hover your mouse on them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the process could be interrupted by moving or fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
+To do so, you can click on a tile, then click on the construction button.
+Now try to set a med kit on any tile you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations! You finished the tutorial. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[121]</t>
   </si>
 </sst>
 </file>
@@ -813,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="4">
         <v>999</v>
@@ -994,16 +1088,16 @@
         <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
@@ -1014,19 +1108,19 @@
         <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="4">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1034,19 +1128,19 @@
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>999</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1054,439 +1148,579 @@
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>999</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>301</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>211</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>302</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>212</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4">
-        <v>999</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
+        <v>213</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>214</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>215</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="4">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>216</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="4">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>217</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>301</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>302</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>999</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>303</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4">
+        <v>999</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>304</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>999</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>305</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4">
-        <v>999</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D24" s="4">
+        <v>999</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>306</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4">
+        <v>999</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>307</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>999</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>308</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4">
+        <v>999</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>309</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4">
+        <v>999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>310</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>304</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>999</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>305</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4">
-        <v>999</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>306</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4">
-        <v>999</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>307</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4">
-        <v>999</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>308</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4">
-        <v>999</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4">
+        <v>999</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>311</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>309</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>312</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4">
-        <v>999</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="4">
+        <v>999</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>401</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>310</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4">
-        <v>999</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F32" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>402</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>311</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4">
-        <v>999</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>312</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="4">
-        <v>999</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>401</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D33" s="4">
+        <v>999</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>403</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="4">
+        <v>999</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>404</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4">
+        <v>999</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>405</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="4">
+        <v>999</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>406</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="4">
+        <v>999</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>407</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>402</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="4">
-        <v>999</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>403</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4">
-        <v>999</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>404</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>408</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="4">
-        <v>999</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>405</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="4">
-        <v>999</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>406</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="4">
-        <v>999</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>407</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>408</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4">
         <v>11</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="E39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>409</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="4">
         <v>12</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>80</v>
+      <c r="E40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B778F-284D-44C0-8395-F686E03E88EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2843F4-40E1-4D06-AFFF-BB935B1637AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,66 +487,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Move: Drag units to move.The longer the route you draw, the longer it will take that unit to move there.
-Camera: WASD/Arrows to move camera; Scroll mouse wheels to zoom in/out
-Now try to move your unit to the tile with a flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the process could be interrupted by moving or fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[121]</t>
   </si>
   <si>
     <t>When your units enter a tile controlled by an enemy unit, they will fight untill one of them die or retreat. 
 You can retreat a unit by move it away from the fight.
-Now move your unit to fight the enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
-  Morale: Unit with higher morale level will deal more damage.
-  Ammo: Units will constantly consume ammo during combat. If a unit runs out of ammo, the damage they deal will decrease.
-You can view one's morale and ammo by hover your mouse on them
-    </t>
+Now move your unit to &lt;b&gt;&lt;color=red&gt; fight an enemy &lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
+To do so, you can click on a tile, then click on the construction button.
+Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt; on any tile you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Congratulations! You finished the tutorial. &lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move:  &lt;b&gt;&lt;color=yellow&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take that unit to move there.
+Camera: &lt;b&gt;&lt;color=yellow&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
+Now try to move &lt;b&gt;&lt;color=green&gt;Liu Jianxin&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;tile with a flag&lt;/color&gt;&lt;/b&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
 Your units have different roles, which means each unit offers unique support skills. 
-You can view a unit's buff by hover your mouse on them</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the process could be interrupted by moving or fighting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
-To do so, you can click on a tile, then click on the construction button.
-Now try to set a med kit on any tile you want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations! You finished the tutorial. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[115]</t>
-  </si>
-  <si>
-    <t>[116]</t>
-  </si>
-  <si>
-    <t>[117]</t>
-  </si>
-  <si>
-    <t>[118]</t>
-  </si>
-  <si>
-    <t>[119]</t>
-  </si>
-  <si>
-    <t>[120]</t>
-  </si>
-  <si>
-    <t>[121]</t>
+You can view a unit's buff by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
+  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Unit with higher morale level will deal more damage.
+  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. If a unit runs out of ammo, the damage they deal will decrease.
+You can view one's morale and ammo by&lt;b&gt;&lt;color=yellow&gt; hover the mouse &lt;/color&gt;&lt;/b&gt;on them
+    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>211</v>
       </c>
@@ -1171,13 +1171,13 @@
         <v>94</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D13" s="4">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>94</v>
@@ -1191,13 +1191,13 @@
         <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D14" s="4">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>101</v>
@@ -1211,13 +1211,13 @@
         <v>96</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>96</v>
@@ -1231,13 +1231,13 @@
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>97</v>
@@ -1251,13 +1251,13 @@
         <v>98</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" s="4">
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>98</v>
@@ -1271,13 +1271,13 @@
         <v>99</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>99</v>
@@ -1291,13 +1291,13 @@
         <v>100</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D19" s="4">
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>100</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2843F4-40E1-4D06-AFFF-BB935B1637AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B58402-1D31-454B-8EE9-CEB63378DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3150" yWindow="4530" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t>long</t>
   </si>
@@ -547,6 +547,87 @@
 You can view one's morale and ammo by&lt;b&gt;&lt;color=yellow&gt; hover the mouse &lt;/color&gt;&lt;/b&gt;on them
     </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_2</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_3</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_4</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The commander got a call from the battalion commander.
+(This is a key event, you can't skip this.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[501]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[502]</t>
+  </si>
+  <si>
+    <t>[503]</t>
+  </si>
+  <si>
+    <t>[504]</t>
+  </si>
+  <si>
+    <t>[505,506]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[507]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[508]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue2</t>
+  </si>
+  <si>
+    <t>Dialogue3</t>
+  </si>
+  <si>
+    <t>Dialogue4</t>
+  </si>
+  <si>
+    <t>Dialogue5</t>
+  </si>
+  <si>
+    <t>Dialogue6</t>
   </si>
 </sst>
 </file>
@@ -907,23 +988,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -983,7 +1064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1003,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1023,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1043,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1063,7 +1144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1083,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -1103,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1123,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1143,7 +1224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1163,7 +1244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>211</v>
       </c>
@@ -1183,7 +1264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>212</v>
       </c>
@@ -1203,7 +1284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>213</v>
       </c>
@@ -1223,7 +1304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>214</v>
       </c>
@@ -1243,7 +1324,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>215</v>
       </c>
@@ -1263,7 +1344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>216</v>
       </c>
@@ -1283,7 +1364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>217</v>
       </c>
@@ -1303,7 +1384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>301</v>
       </c>
@@ -1323,7 +1404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>302</v>
       </c>
@@ -1343,7 +1424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>303</v>
       </c>
@@ -1363,7 +1444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>304</v>
       </c>
@@ -1383,7 +1464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>305</v>
       </c>
@@ -1403,7 +1484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>306</v>
       </c>
@@ -1423,7 +1504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>307</v>
       </c>
@@ -1443,7 +1524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>308</v>
       </c>
@@ -1463,7 +1544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>309</v>
       </c>
@@ -1483,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>310</v>
       </c>
@@ -1503,7 +1584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>311</v>
       </c>
@@ -1523,7 +1604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>312</v>
       </c>
@@ -1543,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>401</v>
       </c>
@@ -1563,7 +1644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>402</v>
       </c>
@@ -1583,7 +1664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>403</v>
       </c>
@@ -1603,7 +1684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>404</v>
       </c>
@@ -1623,7 +1704,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>405</v>
       </c>
@@ -1643,7 +1724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>406</v>
       </c>
@@ -1663,7 +1744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>407</v>
       </c>
@@ -1683,7 +1764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>408</v>
       </c>
@@ -1703,7 +1784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>409</v>
       </c>
@@ -1721,6 +1802,146 @@
       </c>
       <c r="F40" s="5" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>501</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="4">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>502</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="4">
+        <v>999</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>503</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="4">
+        <v>999</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>504</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="4">
+        <v>999</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>505</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="4">
+        <v>999</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>506</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="4">
+        <v>999</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>507</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="4">
+        <v>999</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B58402-1D31-454B-8EE9-CEB63378DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8EEEA-265B-4F90-AA7B-8197F20F21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3150" yWindow="4530" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
   <si>
     <t>long</t>
   </si>
@@ -487,11 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the process could be interrupted by moving or fighting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[115]</t>
   </si>
   <si>
@@ -522,10 +517,6 @@
     <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
 To do so, you can click on a tile, then click on the construction button.
 Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt; on any tile you want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;Congratulations! You finished the tutorial. &lt;/b&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +619,19 @@
   </si>
   <si>
     <t>Dialogue6</t>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units will automatically recover health/ammo when the entered a tile with med kit/ammo crate. Be careful that your enemy will also be able to use these items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -990,21 +994,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C47"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>211</v>
       </c>
@@ -1252,19 +1256,19 @@
         <v>94</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>212</v>
       </c>
@@ -1272,19 +1276,19 @@
         <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>213</v>
       </c>
@@ -1292,19 +1296,19 @@
         <v>96</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>214</v>
       </c>
@@ -1312,19 +1316,19 @@
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>215</v>
       </c>
@@ -1332,19 +1336,19 @@
         <v>98</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D17" s="4">
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>216</v>
       </c>
@@ -1352,19 +1356,19 @@
         <v>99</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="4">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>217</v>
       </c>
@@ -1372,19 +1376,19 @@
         <v>100</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4">
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>301</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>302</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>303</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>304</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>305</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>306</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>307</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>308</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>309</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>310</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>311</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>312</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>401</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>402</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>403</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>404</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>405</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>406</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>407</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>408</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>409</v>
       </c>
@@ -1804,144 +1808,144 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>501</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="4">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>502</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4">
         <v>999</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>503</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="4">
         <v>999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>504</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>505</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>506</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>507</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8EEEA-265B-4F90-AA7B-8197F20F21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C311D64-9F0E-4755-9777-61C6B1330155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,111 +526,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Defensive_Collapsed_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_2</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_3</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_4</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The commander got a call from the battalion commander.
+(This is a key event, you can't skip this.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[501]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[502]</t>
+  </si>
+  <si>
+    <t>[503]</t>
+  </si>
+  <si>
+    <t>[504]</t>
+  </si>
+  <si>
+    <t>[505,506]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[507]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[508]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue2</t>
+  </si>
+  <si>
+    <t>Dialogue3</t>
+  </si>
+  <si>
+    <t>Dialogue4</t>
+  </si>
+  <si>
+    <t>Dialogue5</t>
+  </si>
+  <si>
+    <t>Dialogue6</t>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units will automatically recover health/ammo when the entered a tile with med kit/ammo crate. Be careful that your enemy will also be able to use these items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
+  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
+  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
 Your units have different roles, which means each unit offers unique support skills. 
-You can view a unit's buff by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
-  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Unit with higher morale level will deal more damage.
-  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. If a unit runs out of ammo, the damage they deal will decrease.
-You can view one's morale and ammo by&lt;b&gt;&lt;color=yellow&gt; hover the mouse &lt;/color&gt;&lt;/b&gt;on them
-    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collasped_01</t>
-  </si>
-  <si>
-    <t>Defensive_Collasped_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_2</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_3</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_4</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_5_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_5_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The commander got a call from the battalion commander.
-(This is a key event, you can't skip this.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[501]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[502]</t>
-  </si>
-  <si>
-    <t>[503]</t>
-  </si>
-  <si>
-    <t>[504]</t>
-  </si>
-  <si>
-    <t>[505,506]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[507]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[508]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue2</t>
-  </si>
-  <si>
-    <t>Dialogue3</t>
-  </si>
-  <si>
-    <t>Dialogue4</t>
-  </si>
-  <si>
-    <t>Dialogue5</t>
-  </si>
-  <si>
-    <t>Dialogue6</t>
-  </si>
-  <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Units will automatically recover health/ammo when the entered a tile with med kit/ammo crate. Be careful that your enemy will also be able to use these items.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewTutorial_07</t>
+You can view a unit's status by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>213</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>96</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
@@ -1316,7 +1314,7 @@
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D16" s="4">
         <v>16</v>
@@ -1336,7 +1334,7 @@
         <v>98</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="4">
         <v>17</v>
@@ -1376,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4">
         <v>19</v>
@@ -1385,7 +1383,7 @@
         <v>108</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1757,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="4">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>76</v>
@@ -1779,7 +1777,7 @@
         <v>88</v>
       </c>
       <c r="D39" s="4">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>76</v>
@@ -1799,7 +1797,7 @@
         <v>89</v>
       </c>
       <c r="D40" s="4">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>76</v>
@@ -1813,19 +1811,19 @@
         <v>501</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1833,19 +1831,19 @@
         <v>502</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
         <v>999</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1853,19 +1851,19 @@
         <v>503</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="4">
         <v>999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1873,19 +1871,19 @@
         <v>504</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1893,19 +1891,19 @@
         <v>505</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1913,19 +1911,19 @@
         <v>506</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1933,19 +1931,19 @@
         <v>507</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C311D64-9F0E-4755-9777-61C6B1330155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FEDD3-F988-44DC-93CA-C583B8B55059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>long</t>
   </si>
@@ -97,23 +97,10 @@
     <t>Event6</t>
   </si>
   <si>
-    <t>Drag your units to draw a route to move them. The further they move, the longer it takes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When your units enterd a area with controled by an enemy,  they will start a combat. 
-Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can spend bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When a unit is in a combat, units that stand in the areas next to it will offer support to the combat unit (as the green line shows). Different roles will have different support skills.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,26 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Commander: “Ceasefire!”
-The sound of gunshots dwindles.
-After dropping a dozen bodies, one after another, the Enemy must realize that this attack is unlikely to succeed. The remaining enemies cover each other as they retreat, leaving weapons and ammunition scattered all over the battleground.
-Obviously, it was not a good idea to go after the Enemy. While the Enemy retreats, you hurriedly count your warriors.
-Commander: “Report the count! One!”
-You secretly pray that there will be no casualties from the battle just now.
-Liu Jianxin: “Two…!”
-The familiar voices report one by one.
-The Medic: “Three…!”
-You breathe a silent sigh of relief.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown: “Four!”
-An unfamiliar and childish voice rings out from the battlefield. Startled, you and your Squad look towards the sound of the voice. You see a Teenager slowly crawling out from behind the rocks.
-He was one of the folks from the Village who came to deliver supplies last time! Your Squad is overjoyed to see him still alive.
-He is lying on the ground, in a terrible state. The rags that cover his body are mixed with blood and mud. His hands are clutching a bag.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,28 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You motion to your Squad with your hand toward the bag. Liu Jianxin hesitates for a moment, then grabs for the bag. The Teenager resists at first, but then relents. Upon inspection, you and your Squad see that it contains some magazines, medicines, and a few steamed buns.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You crawl toward him.
-Commander: “Kid, where is your dad?”
-You see that the Teenager’s face is blackened by the smoke and filled with tears.
-The Teenager holds back the tears, but there is still a choke in his voice.
-Teenager: “We…encountered a bombardment on our way back. Dad saved me…”
-He does not say more, but you all understand what happened…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teenager: “Let me stay here! I want to fight too! I want REVENGE! I’m not afraid to die!”
-The tears from the Teenager’s eyes mix with the blood and dust on his clothing. But the will in his eyes is firm. The spark of hatred shines from them.
-Liu Jianxin suddenly gets up.
-Liu Jianxin: “No way. You’ve gotta live. Don’t stay here.”
-The Medic: “You must be kidding?! He’s just a kid: do you expect him to cross the blockade again? Let him stay here. At least here we can protect him.”
-Liu Jianxin (determined): “Then I’ll escort him back! It won’t take much time: I’ll just send him to the blockade line, and then he can return to his village on his own.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_1_3_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,45 +189,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You look at the Teenager.
-To protect the Motherland and its people is the duty of all her soldiers. It is the hope that folks won’t need to suffer the ravages of war again. The same hope that supports the will of you and your Squad to fight in this hell.
-You do not doubt the Teenager’s hatred and determination to fight. But do you want him to stay in this dangerous battleground?
-But then again, asking the Teenager to go back by himself is unsafe. Even if he really isn’t afraid to die. 
-No one speaks again. The only sound echoing in the air are the sobs that the Teenager is trying and failing to hold back. Your Squad looks to their commander…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_01</t>
   </si>
   <si>
-    <t>After a moment of silence, you finally manage to speak up.
-Commander: “Liu Jianxin, you send him back.”
-Teenager (shouting excitedly): “No! Why?! I can fight! This is my home; I want to fight!”
-Commander: “I understand your pain and hatred. I really do. But you must live, son. We didn’t protect your father. But at least we can protect you. Don’t die for hatred. Live so that there is hope.”
-You gesture to the rest of the Squad.
-Commander: “Maybe one day you will need to fight, but for now, it’s not your turn to make that sacrifice.”
-You hope that day will never come, you silently add.
-Despite the Teenager’s objections, Liu Jianxin picks up his gun and leads the Teenager out of position.
-Peace returns to the hill…or at least, until the next wave of enemies appears…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_1_6_B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Village_Teenager_1_6_B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Commander: “Let him stay.”
-Liu Jianxin: “Commander…!”
-Liu Jianxin rarely gets so emotional.
-Liu Jianxin: “It’s too dangerous here! We can’t let him stay here!”
-Commander: “This is also his homeland; this is also his fight. Since he has the readiness and determination, he has the right to fight. We need every bit of strength to hold this position. That is the only duty we all have today. Don’t forget! Behind us is our Motherland!”
-You turn to the Teenager.
-Commander: “You can escort the wounded and carry ammunition to the rear. But when the Enemy appears, I want you to hide in the command post. I don’t want you anywhere near the frontline.”
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,332 +217,439 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[213]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[214]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody know killing better than me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[301]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[302]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[303,304]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[305]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_0_1</t>
+  </si>
+  <si>
+    <t>Village_Teenager_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A teenager from nearby village appeared on the battleground unexpectedly. He seemed to have brought some supply and food.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[215,216]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The telephone cable is destoryed by a bombardment. Some one should go to fix it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[306,307]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[111,308]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[112,309]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造了一个弹药箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色开打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_01（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_02（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_03（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_04（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_02</t>
+  </si>
+  <si>
+    <t>NewTutorial_03</t>
+  </si>
+  <si>
+    <t>NewTutorial_04</t>
+  </si>
+  <si>
+    <t>NewTutorial_05</t>
+  </si>
+  <si>
+    <t>NewTutorial_06</t>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+  </si>
+  <si>
+    <t>NewTutorial_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[121]</t>
+  </si>
+  <si>
+    <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
+To do so, you can click on a tile, then click on the construction button.
+Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt; on any tile you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+  </si>
+  <si>
+    <t>Defensive_Collasped_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_2</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_3</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_4</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The commander got a call from the battalion commander.
+(This is a key event, you can't skip this.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[501]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[502]</t>
+  </si>
+  <si>
+    <t>[503]</t>
+  </si>
+  <si>
+    <t>[504]</t>
+  </si>
+  <si>
+    <t>[505,506]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[507]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[508]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units will automatically recover health/ammo when the entered a tile with med kit/ammo crate. Be careful that your enemy will also be able to use these items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitterness floods &lt;b&gt;the Commander&lt;/b&gt;’s heart. Without the center, the two remaining positions will be easily surrounded.
+Is it time to withdraw?
+&lt;b&gt;“Battalion Commander, are we……”&lt;/b&gt;.
+&lt;b&gt;“You……must stay.”&lt;/b&gt; The Battalion Commander’s voice shivers, understanding what that order means.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;The Commander&lt;/b&gt; Looks around.
+The cool evening breeze that swept through the position was laced with smoke and the scent of burnt earth.
+He sees the physically and mentally exhausted soldiers, and the fire in their eyes.
+He knows, that no matter what decision he makes, these warriors would follow his orders. 
+He raises the phone back up to his head.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Apologies, Battalion Commander,” the Commander&lt;/b&gt; puts down the phone, &lt;b&gt;“Did not hear last reply.”&lt;/b&gt;
+&lt;b&gt;“Squad, ready for battle and prepare to break out, ”the Commander&lt;/b&gt; ordered, his voice trembling even as he shouted.
+Puzzled looks appeared on the soldiers’ faces, but the situation was too urgent to question the order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“I am sorry, Battalion Commander. But I must bring these men home alive. They shouldn’t die here.”&lt;/b&gt;
+&lt;b&gt;“I will bear the fault alone for failing to obey orders.” The Commander&lt;/b&gt; look out at the hill that they have held for five days, and gives the last order of his military career.
+&lt;b&gt;“Move out!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[509]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The field phone suddenly rang out. It’s fixed!
+&lt;b&gt;The Commander&lt;/b&gt; took the phone from the dusty faced &lt;b&gt;Signalman&lt;/b&gt;, and a familiar voice came over. 
+&lt;b&gt;"Sergeant Commander, can you hear me?!”&lt;/b&gt;
+&lt;b&gt;"Battalion Commander! Our phone line was……”&lt;/b&gt;
+&lt;b&gt;"Listen to me!"&lt;/b&gt; the Battalion Commander roared as he interrupted &lt;b&gt;the Commander&lt;/b&gt;'s report.
+&lt;b&gt;“The 8th Platoon can't hold it anymore."&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“The 7th squad is lost.”&lt;/b&gt;The Battalion Commander continues, &lt;b&gt;“The 8th Platoon can still fight, but they need time to evacuate to a secondary position and reestablish the defensive line.”&lt;/b&gt;
+&lt;b&gt;“Cover the 8th Platoon, and hold on for reinforcement.”&lt;/b&gt;
+This is obviously the right order. Leaving with &lt;b&gt;the 8th Platoon&lt;/b&gt; without cover could easily get both of them eliminated, leading to an inevitable failure.
+However, can they really hold on until reinforcements arrives?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Yes sir! We will cover the 8th Platoon, and hold on until reinforcement arrives.”&lt;/b&gt;
+The soldiers soon understand the meaning of the order. No one spoke, complained, or argued. They just return to what they are doing – healing wounds, building fortifications.
+They know that more people will get to survive for this.
+&lt;b&gt;"Please rest assured, Battalion Commander,” the Commander&lt;/b&gt; answers, &lt;b&gt; “We will live and die with this hill."&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When your units enter an area with enemies on it, a battle will be triggered.
+Units consumes ammo in combats. 
+Their damage will decrease once they ran out of ammo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag your units to draw a route to move them. 
+The further they move, the longer it takes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use supply bullets/medecine to set an ammo box/med kit in a area, which will benefit your units in combat. Click on any areas controled by your unit, and then press the construction button, choose a item you want to set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move:  &lt;b&gt;&lt;color=yellow&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take for that unit to move there.
+Camera: &lt;b&gt;&lt;color=yellow&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
+Now try to move &lt;b&gt;&lt;color=green&gt;Liu Jianxin&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;tile with a flag&lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When your units enter a area with enemy units, a battle will be triggered.
+You can withdraw a unit by moving it away from the fight.
+Now move your unit to &lt;b&gt;&lt;color=red&gt; fight an enemy &lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it canl deal
+  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
+  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in combat, friendly units in neighboring areas will offer support. (As shown by the green line.)
+Your units have different roles, which means each unit offers unique support skills. 
+You can view a unit's status by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sound of shots fired on the battleground gradually stops.
+After dropping a dozen corpses, the remaining enemies begin to retreat, leaving weapons and ammunitions scattered all over the place.
+&lt;b&gt;"Stop firing! Report the count!"&lt;/b&gt;
+It is not a good time go after the enemies. The &lt;b&gt;Commander&lt;/b&gt; hurriedly counts his warriors, secretly praying that there would be no casualties.
+&lt;b&gt;"One, two, three ......"&lt;/b&gt; Familiar voices rang one by one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Four!"&lt;/b&gt;
+An unfamiliar and childish voice rings out of nowhere, surprising everyone. 
+The squad look towards the source of the voice, only to see a teenager slowly crawling out from behind the rocks.
+He is lying on the ground, in a terrible state. The rags on his body mixed with mud and blood. His hands are clutching a bag, filled with some bandages and a few steamed buns.
+He was with the folks from nearby village, who came to deliver the supplies last time! The Squad is overjoyed the boy is still alive, but then they are puzzled as to why he is alone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Liu Jianxin&lt;/b&gt; hesitates for a moment, then grabs for the bag. The Teenager resists at first, but then relents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The &lt;b&gt;Commander&lt;/b&gt; crawls toward him.
+&lt;b&gt;"Kid, where's your dad?"&lt;/b&gt;
+Only then does the Commander see that the teenager's face, blackened by the smoke, is filled with tears. 
+&lt;b&gt;"We ...... encountered a bombardment on our way here. Dad saved me ......"&lt;/b&gt;
+The teenager chokes as he holds back tears.
+He does not say anymore, but everyone understands what happened.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The &lt;b&gt;Commander&lt;/b&gt; looks at the teenager.
+Protecting Motherland and her people is the duty of every soldier.
+Even though he does not doubt the boy's determination to fight, he does not want him to stay here.
+But then again, to ask the teenager to return by himself is too dangerous.
+No one speaks again, only the sobs that the teenager is holding back echo in the air. The Squad looks to their commander.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Let him stay."&lt;/b&gt;
+&lt;b&gt;"Commander! It's too dangerous here, we can't let him stay!"&lt;/b&gt;
+&lt;b&gt;Liu Jianxin&lt;/b&gt; is rarely so emotional.
+&lt;b&gt;"This is also his motherland, his fight. If he’s ready, he should stay.&lt;/b&gt; &lt;b&gt;The commander&lt;/b&gt; says calmly, &lt;b&gt;“And we need every bit of strength to hold this position. Don’t forget Motherland is behind us."
+&lt;b&gt;"Son, I promise you." The Commander&lt;/b&gt; knelt and gently hugged the teenager, &lt;b&gt;"We will win."&lt;/b&gt;
+Witnessing this event, the exhausted squad seemed to have found another reason to continue fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Commander: “Get out of here. Go home.”
 Liu Jianxin: “Without protection?!”
 The Medic: “Sir, he’s just a KID…?!”
 Commander: “Yes, a kid. A kid we cannot afford to worry about while defending our post! We can’t spare the manpower. I need every soldier I have!”
-Teenager: “Exactly! I can help!”
-Commander: “No, you can’t.”
-Teenager: “This is unfair! I want to fight for my home! I…!”
-Commander (forceful): “War is not about what is FAIR!”
-You point down the hill in the direction of the village.
-Commander (insistent): “Your HOME is down there, not up here! I know you’re struggling, but this is not a battle you can win! Stop and go home!”
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from your Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[213]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[214]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nobody know killing better than me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bombardment gradually subsided. From past experience, another wave of the enemy infantry will soon arrive. The sound of gunfire can be vaguely heard from the 8th Platoon's position.
-"Something’s wrong, why didn't the 8th Platoon inform the size of the enemy attack?" As the commander commanded the soldiers to repair the fortifications destroyed by the artillery fire, his heart felt a pang of apprehension.
-A few moments later, the communicator who crawled out of the trench brought the worst news.
-"Commander! The telephone line was broken by the artillery attack!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apparently, the communicator could now receive neither alert from the 8th Platoon nor any instructions from the command center. For this moment, the entire battle ground became an isolated island cut off from the outside world, and all that could be heard was the sound of gunfire coming from afar.
-"Immediately locate the break and prepare to repair it!"
-The enemy infantry would soon arrive, and it was uncertain whether they would be able to repair the telephone line before they arrived. And no matter who was to undertake this task, he had to leave his position and venture into the enemy's fire range.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"I'll go." Liu Jianxin and the engineer vocalized at the same time, and then both looked at the commander.
-Liu Jianxin was clearly the better fighter, not only was he excellent in combat, but he never said anything in the face of dangerous tasks; but to fix the phone line, perhaps the engineer was more familiar with these kind of work and could fix it in time before the enemy came.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liu, go ahead." The commander looked directly into Liu Jianxin's eyes, as if he wanted to see through his inner thoughts. "But you must come back alive. This is an order."
-Their eyes met for a short moment; Liu Jianxin nodded gently. Then, he picked up his gun, took the wiring tools from the engineer, and left the position without looking back.
-Liu Jianxin always likes to take on the most dangerous tasks, is he really not afraid of death?
-Looking at his back, this thought flashed through the commander's mind.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To be continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[301]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[302]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[303,304]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[305]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_0_1</t>
-  </si>
-  <si>
-    <t>Village_Teenager_Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A teenager from nearby village appeared on the battleground unexpectedly. He seemed to have brought some supply and food.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[215,216]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Village_Teenager_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The telephone cable is destoryed by a bombardment. Some one should go to fix it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[306,307]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[111,308]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[112,309]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色到了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造了一个弹药箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色开打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_01（废弃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_02（废弃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_03（废弃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial_04（废弃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewTutorial_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewTutorial_02</t>
-  </si>
-  <si>
-    <t>NewTutorial_03</t>
-  </si>
-  <si>
-    <t>NewTutorial_04</t>
-  </si>
-  <si>
-    <t>NewTutorial_05</t>
-  </si>
-  <si>
-    <t>NewTutorial_06</t>
-  </si>
-  <si>
-    <t>NewTutorial_07</t>
-  </si>
-  <si>
-    <t>NewTutorial_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[115]</t>
-  </si>
-  <si>
-    <t>[116]</t>
-  </si>
-  <si>
-    <t>[117]</t>
-  </si>
-  <si>
-    <t>[118]</t>
-  </si>
-  <si>
-    <t>[119]</t>
-  </si>
-  <si>
-    <t>[120]</t>
-  </si>
-  <si>
-    <t>[121]</t>
-  </si>
-  <si>
-    <t>When your units enter a tile controlled by an enemy unit, they will fight untill one of them die or retreat. 
-You can retreat a unit by move it away from the fight.
-Now move your unit to &lt;b&gt;&lt;color=red&gt; fight an enemy &lt;/color&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can set ammo crates or med kits on tiles you controlled, which will consume supplies
-To do so, you can click on a tile, then click on the construction button.
-Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt; on any tile you want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move:  &lt;b&gt;&lt;color=yellow&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take that unit to move there.
-Camera: &lt;b&gt;&lt;color=yellow&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
-Now try to move &lt;b&gt;&lt;color=green&gt;Liu Jianxin&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;tile with a flag&lt;/color&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collasped_01</t>
-  </si>
-  <si>
-    <t>Defensive_Collasped_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_2</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_3</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_4</t>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_5_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive_Collapsed_3_5_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The commander got a call from the battalion commander.
-(This is a key event, you can't skip this.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[501]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[502]</t>
-  </si>
-  <si>
-    <t>[503]</t>
-  </si>
-  <si>
-    <t>[504]</t>
-  </si>
-  <si>
-    <t>[505,506]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[507]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[508]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue2</t>
-  </si>
-  <si>
-    <t>Dialogue3</t>
-  </si>
-  <si>
-    <t>Dialogue4</t>
-  </si>
-  <si>
-    <t>Dialogue5</t>
-  </si>
-  <si>
-    <t>Dialogue6</t>
-  </si>
-  <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Units will automatically recover health/ammo when the entered a tile with med kit/ammo crate. Be careful that your enemy will also be able to use these items.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewTutorial_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it will deal
-  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
-  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
-Your units have different roles, which means each unit offers unique support skills. 
-You can view a unit's status by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
+    <t>Heartbroken, the tears come from the Teenager’s eyes in full force now. He storms off in anger and rejection. The protests from the Squad are replaced by a stony silence. A little bit of the hope and resolve they had will be gone when the next wave comes…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a round of bombardment subsided, &lt;b&gt;the Signalman&lt;/b&gt; crawls out of the cover and brings the worst news.
+&lt;b&gt;"Commander! The telephone line was broken by the bombardment!"&lt;/b&gt;
+He can now neither alert the &lt;b&gt;8th Platoon&lt;/b&gt; nor receive instructions from Head Quarter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“We need someone to fix it. Immediately.”&lt;/b&gt;
+The enemy infantry will soon arrive. Whoever takes up this mission is in the risk of exposing himself to enemy fires. 
+&lt;b&gt;"I'll go,"&lt;/b&gt; said &lt;b&gt;Liu Jianxin&lt;/b&gt; and &lt;b&gt;the Engineer&lt;/b&gt; simultaneously, and then both look at &lt;b&gt;the Commander&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Liu Jianxin&lt;/b&gt; is an excellent fighter, and never backed down from dangerous tasks. But perhaps &lt;b&gt;the Engineer&lt;/b&gt; was more familiar with this kind of work and could fix it faster?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Liu, go ahead."&lt;/b&gt;
+Their eyes met briefly, as if the Commander was trying to read Liu Jianxin’s mind. What a great warrior, is he really not afraid of death?
+As if answering his thoughts, &lt;b&gt;Liu Jianxin&lt;/b&gt; nods gently. Picking up his gun, he takes wiring tools from the &lt;b&gt;Engineer&lt;/b&gt; and leaves without looking back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Let me stay here! I want to fight too, I'm not afraid to die!"&lt;/b&gt;
+With these words, the teenager's tears came out of his eyes, mixing with the blood and dust on his filthy clothes. 
+But the will in his eyes is firm, and the spark of hatred shines.
+Hearing the teenager's speech, &lt;b&gt;Liu Jianxin&lt;/b&gt;, who sat by the side in silence, suddenly gets up.
+&lt;b&gt;“No way. You have to live, don't stay here."&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Liu, send him back."&lt;/b&gt; ,After a moment of silence, &lt;b&gt;the Commander&lt;/b&gt; finally manages to speak up.
+&lt;b&gt;" Why! I can fight! I don't have a home anymore, I want to fight here....!"&lt;/b&gt;
+&lt;b&gt;"I understand, I really do. But you must live, son.”&lt;/b&gt;&lt;b&gt;"Your time to fight will come, but not Today. Not when we are still alive." &lt;/b&gt;
+Despite the teenager's objections, &lt;b&gt;Liu Jianxin&lt;/b&gt; picks up his gun and leads him out of the position.
+Peace returns to the hill…at least for now</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,23 +1011,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1063,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1083,10 +1104,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1103,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1123,10 +1144,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1143,10 +1164,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>999</v>
@@ -1163,787 +1184,807 @@
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4">
+        <v>999</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
-        <v>999</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4">
         <v>999</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D11" s="4">
         <v>999</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
         <v>999</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>212</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>213</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>214</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>215</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D17" s="4">
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>216</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>217</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4">
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>301</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>302</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>303</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>304</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>305</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>306</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="D25" s="4">
         <v>999</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>307</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>308</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="171" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>309</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4">
         <v>999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="179.4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>311</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="D30" s="4">
         <v>999</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>312</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4">
         <v>999</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>401</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>402</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4">
         <v>999</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>403</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>404</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>405</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>406</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4">
         <v>999</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>407</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4">
         <v>999</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>408</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D39" s="4">
         <v>999</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>409</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4">
         <v>999</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>501</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D41" s="4">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>502</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>129</v>
+        <v>96</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D42" s="4">
         <v>999</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>503</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D43" s="4">
         <v>999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>504</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>131</v>
+        <v>98</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>505</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>132</v>
+        <v>99</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>506</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>507</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>508</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="4">
+        <v>999</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FEDD3-F988-44DC-93CA-C583B8B55059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A000E5-2587-4583-863B-C6D875248B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1278,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="4">
-        <v>13</v>
+        <v>999</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>85</v>
@@ -1298,7 +1298,7 @@
         <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>86</v>
@@ -1318,7 +1318,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="4">
-        <v>15</v>
+        <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>87</v>
@@ -1338,7 +1338,7 @@
         <v>128</v>
       </c>
       <c r="D16" s="4">
-        <v>16</v>
+        <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>88</v>
@@ -1358,7 +1358,7 @@
         <v>110</v>
       </c>
       <c r="D17" s="4">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>89</v>
@@ -1378,7 +1378,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="4">
-        <v>18</v>
+        <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>90</v>
@@ -1398,7 +1398,7 @@
         <v>111</v>
       </c>
       <c r="D19" s="4">
-        <v>19</v>
+        <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>91</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A000E5-2587-4583-863B-C6D875248B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96720B-DD27-4CCE-9894-B58121F6C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,12 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Move:  &lt;b&gt;&lt;color=yellow&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take for that unit to move there.
-Camera: &lt;b&gt;&lt;color=yellow&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
-Now try to move &lt;b&gt;&lt;color=green&gt;Liu Jianxin&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;tile with a flag&lt;/color&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When your units enter a area with enemy units, a battle will be triggered.
 You can withdraw a unit by moving it away from the fight.
 Now move your unit to &lt;b&gt;&lt;color=red&gt; fight an enemy &lt;/color&gt;&lt;/b&gt;</t>
@@ -548,12 +542,6 @@
     <t xml:space="preserve">A unit's morale level and ammo will decide how much damage it canl deal
   &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
   &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When a unit is in combat, friendly units in neighboring areas will offer support. (As shown by the green line.)
-Your units have different roles, which means each unit offers unique support skills. 
-You can view a unit's status by &lt;b&gt;&lt;color=yellow&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,6 +638,18 @@
 &lt;b&gt;"I understand, I really do. But you must live, son.”&lt;/b&gt;&lt;b&gt;"Your time to fight will come, but not Today. Not when we are still alive." &lt;/b&gt;
 Despite the teenager's objections, &lt;b&gt;Liu Jianxin&lt;/b&gt; picks up his gun and leads him out of the position.
 Peace returns to the hill…at least for now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move:  &lt;b&gt;&lt;color=teal&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take for that unit to move there.
+Camera: &lt;b&gt;&lt;color=teal&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
+Now try to move &lt;b&gt;&lt;color=green&gt;Liu Jianxin&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;tile with a flag&lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in combat, friendly units in neighboring areas will offer support. (As shown by the green line.)
+Your units have different roles, which means each unit offers unique support skills. 
+You can view a unit's status by &lt;b&gt;&lt;color=teal&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1275,10 +1275,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="4">
-        <v>999</v>
+        <v>141</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>85</v>
@@ -1295,10 +1295,10 @@
         <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="4">
-        <v>999</v>
+        <v>125</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>86</v>
@@ -1315,10 +1315,10 @@
         <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="4">
-        <v>999</v>
+        <v>126</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>87</v>
@@ -1335,10 +1335,10 @@
         <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="4">
-        <v>999</v>
+        <v>142</v>
+      </c>
+      <c r="D16" s="1">
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>88</v>
@@ -1357,8 +1357,8 @@
       <c r="C17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="4">
-        <v>999</v>
+      <c r="D17" s="1">
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>89</v>
@@ -1377,8 +1377,8 @@
       <c r="C18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="4">
-        <v>999</v>
+      <c r="D18" s="1">
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>90</v>
@@ -1397,8 +1397,8 @@
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="4">
-        <v>999</v>
+      <c r="D19" s="1">
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>91</v>
@@ -1435,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
@@ -1455,7 +1455,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
@@ -1475,7 +1475,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
@@ -1495,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
@@ -1515,7 +1515,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" s="4">
         <v>999</v>
@@ -1535,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
@@ -1575,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
@@ -1615,7 +1615,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4">
         <v>999</v>
@@ -1635,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4">
         <v>999</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4">
         <v>999</v>
@@ -1695,7 +1695,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
@@ -1715,7 +1715,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
@@ -1735,7 +1735,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96720B-DD27-4CCE-9894-B58121F6C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29416C5F-351E-48C2-8A35-642275393904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1068" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>long</t>
   </si>
@@ -86,15 +86,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nobody know China better than me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[101,102,103,105]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event6</t>
   </si>
   <si>
     <t>Tutorial_01</t>
@@ -225,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nobody know killing better than me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dangerous_Mission_2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,9 +345,6 @@
   <si>
     <t>NewTutorial_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[115]</t>
   </si>
   <si>
     <t>[116]</t>
@@ -650,6 +636,30 @@
     <t>When a unit is in combat, friendly units in neighboring areas will offer support. (As shown by the green line.)
 Your units have different roles, which means each unit offers unique support skills. 
 You can view a unit's status by &lt;b&gt;&lt;color=teal&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove 1003 character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[115]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[106]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,21 +1023,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1081,13 +1091,13 @@
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1101,13 +1111,13 @@
         <v>999</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1121,13 +1131,13 @@
         <v>999</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1141,13 +1151,13 @@
         <v>999</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1155,836 +1165,836 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4">
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D8" s="4">
-        <v>999</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>999</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="4">
         <v>999</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
         <v>999</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>999</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
-        <v>999</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>212</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>213</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>214</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>215</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>216</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>217</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>301</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>302</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4">
         <v>999</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>303</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>304</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>305</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>306</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D25" s="4">
         <v>999</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>307</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>308</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>309</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D28" s="4">
         <v>999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4">
         <v>999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>311</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4">
         <v>999</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>312</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4">
+        <v>999</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="4">
-        <v>999</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>401</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>402</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4">
         <v>999</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>403</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>404</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>405</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>406</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="4">
         <v>999</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>407</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D38" s="4">
         <v>999</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>408</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4">
         <v>999</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>409</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="4">
         <v>999</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>501</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D41" s="4">
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>502</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="4">
         <v>999</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>503</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D43" s="4">
         <v>999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>504</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>505</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>506</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>507</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>508</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4">
         <v>999</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29416C5F-351E-48C2-8A35-642275393904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED614BFF-789F-4F0B-8F95-F961AC52D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1068" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="148">
   <si>
     <t>long</t>
   </si>
@@ -660,6 +660,18 @@
   </si>
   <si>
     <t>[106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add 1005 new character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[108]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1197,261 +1209,261 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>201</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>119</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="4">
-        <v>999</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <v>201</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="4">
+        <v>999</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>202</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="4">
-        <v>999</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="4">
+        <v>999</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>203</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="4">
-        <v>999</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <v>203</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="4">
+        <v>999</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>204</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
-        <v>999</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D13" s="4">
+        <v>999</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="14" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>211</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="15" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>212</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="16" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>213</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="17" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>214</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="18" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>215</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="19" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>216</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>217</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>301</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>302</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="4">
-        <v>999</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>40</v>
@@ -1459,313 +1471,313 @@
     </row>
     <row r="22" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D22" s="4">
         <v>999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="4">
         <v>999</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>305</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>304</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>306</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
+    <row r="25" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>305</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4">
         <v>999</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>307</v>
+    <row r="26" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>306</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>127</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>308</v>
+    <row r="27" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>307</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D27" s="4">
         <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>308</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="4">
+        <v>999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>309</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="4">
-        <v>999</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D29" s="4">
+        <v>999</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>310</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4">
-        <v>999</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>310</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>311</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="4">
-        <v>999</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D31" s="4">
+        <v>999</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>312</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="4">
-        <v>999</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
+        <v>312</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4">
+        <v>999</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>401</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="4">
         <v>9</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>402</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="4">
-        <v>999</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4">
         <v>999</v>
@@ -1779,13 +1791,13 @@
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4">
         <v>999</v>
@@ -1799,13 +1811,13 @@
     </row>
     <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="4">
         <v>999</v>
@@ -1819,13 +1831,13 @@
     </row>
     <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="4">
         <v>999</v>
@@ -1837,163 +1849,183 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
+        <v>409</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4">
+        <v>999</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>501</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="4">
         <v>20</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>502</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="4">
-        <v>999</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
+        <v>502</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="4">
+        <v>999</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>503</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="4">
-        <v>999</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D44" s="4">
+        <v>999</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>504</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="4">
-        <v>999</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
+        <v>505</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4">
+        <v>999</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>506</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="4">
-        <v>999</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D47" s="4">
+        <v>999</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>507</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="4">
-        <v>999</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
+        <v>507</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="4">
+        <v>999</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>508</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="4">
-        <v>999</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D49" s="4">
+        <v>999</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>90</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29416C5F-351E-48C2-8A35-642275393904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B3B42-3025-4FB2-B327-1CD4F20E229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1068" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="50400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="195">
   <si>
     <t>long</t>
   </si>
@@ -660,6 +660,252 @@
   </si>
   <si>
     <t>[106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard shouts for ammo, and…was that beeping?
+&lt;b&gt;“Make a hole,”&lt;/b&gt; a young officer shouted, as his Jeep came roaring onto the battlefield. 
+I couldn’t believe that jalopy was able to drive so well across the rocky slope.
+The Enemy stopped advancing at the sight of the jeep. Not a retreat. Just waiting for the vehicle to leave.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I ran up to the driver. &lt;b&gt;“You’re a Godsend, Lieutenant!”&lt;/b&gt;
+&lt;b&gt;“Call me ‘Epic’,”&lt;/b&gt; he answered.
+I laughed. Nicknames are more important than ranks in the Motherland Army.
+Epic started unraveling a spool of heavy cable
+&lt;b&gt;“Telephone line,”&lt;/b&gt; he explained, as he laid out the line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S4</t>
+  </si>
+  <si>
+    <t>D1E1_S5</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“We need a new signalman,”&lt;/b&gt; I shared grimly, "We lost ours..."
+I thought about requesting additional support. A jeep could patrol the undefended gaps in our line.
+Or better yet, run to an ammo dump?
+Or maybe send this poor kid on his way before he or the jeep got hit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“If you can spy on the Enemy’s positions,”&lt;/b&gt; I asked, &lt;b&gt;“That would be phenomenal?”&lt;/b&gt;
+&lt;b&gt;“I can improvise a ‘scenic route’ on the way back to HQ,”&lt;/b&gt; Epic offered.
+&lt;b&gt;“You’re the best scout the Motherland could ask for,”&lt;/b&gt; I thanked, as Epic hopped back in his jeep and drove off.
+With the jeep gone, the fight was back on again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“You got any rounds,”&lt;/b&gt; I asked, &lt;b&gt;“We’re real short.”&lt;/b&gt;
+Epic hesitated. &lt;b&gt;“Well, I’ll try to make an ammo run if I can, but, ah, don’t count on anything.”&lt;/b&gt;
+Epic hopped back in his jeep. &lt;b&gt;“Good luck,”&lt;/b&gt; he said.
+I thanked him. I could hear movement from the Enemy positions. With the jeep gone, the fight was back on again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“What’s the situation,”&lt;/b&gt; I asked.
+Epic paused. &lt;b&gt;“An Enemy tank division is trying to cut the road south.”&lt;/b&gt;
+You’re gonna be surrounded, is what he meant to say.
+Epic hopped back in his jeep.
+He drove off before I could wish him good luck. With the jeep gone, the fight was back on again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S3</t>
+  </si>
+  <si>
+    <t>D1E2_S4</t>
+  </si>
+  <si>
+    <t>D1E2_S5</t>
+  </si>
+  <si>
+    <t>D1E2_S6</t>
+  </si>
+  <si>
+    <t>D1E2_S7</t>
+  </si>
+  <si>
+    <t>D1E2_S8</t>
+  </si>
+  <si>
+    <t>We were starting to take hits. Wetherall was hanging in there, though.
+&lt;b&gt;“Boss,”&lt;/b&gt; Wetherall called out, pointing.
+Was that… civilians?? There was a man and a boy coming towards us! Right in the middle of the battle!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Cover them,”&lt;/b&gt; I ordered!
+Wetherall and I sighted our targets, keeping the Enemy focused on us.
+The man and the boy ran towards our line, to safety. The pair each carried a covered plywood box.
+&lt;b&gt;“Hello,”&lt;/b&gt; the winded man called out, &lt;b&gt;“We’re from the village.”&lt;/b&gt;
+&lt;b&gt;“Were you unable to evacuate,”&lt;/b&gt; I shouted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“No, we chose to stay,”&lt;/b&gt; the villager insisted, &lt;b&gt;“To help our liberators stay safe!”&lt;/b&gt;
+&lt;b&gt;“You can have this,”&lt;/b&gt; the man offered, holding out his box.
+Wetherall took it and inhaled deeply.
+&lt;b&gt;“Hot food,”&lt;/b&gt; Wetherall exclaimed, &lt;b&gt;“I’m in Heaven, Boss!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I inspected the food.
+It was nothing fancy, but to us, it may as well have been a royal feast!
+There was some kind of roasted wild fowl (pheasant?) that smelled amazing.
+There was also half a loaf of bread, a bowl of oatmeal, and a sweet-smelling omelet.
+This must have been the last of their food supply, stored away until now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“The Motherland is grateful for your contribution,”&lt;/b&gt; I thanked.
+It seemed wrong to impose further. These good people sacrificed so much. Endangered themselves to make it to our hill.
+But if these villagers had anything to spare, it could save lives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Have you got medicine or bandages we can take,”&lt;/b&gt; I asked.
+The man looked taken aback. &lt;b&gt;“Bandages? Medicine?! We’re just villagers! The nearest hospital is 10 kilometers away!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Fabric of any kind,”&lt;/b&gt; I tried.
+&lt;b&gt;“Uh…we have bedsheets,”&lt;/b&gt; the boy volunteered.
+&lt;b&gt;“Yes,”&lt;/b&gt; I confirmed, &lt;b&gt;“That will be okay.”&lt;/b&gt;
+&lt;b&gt;“We can give you a little,”&lt;/b&gt; the man cautioned, &lt;b&gt;“But not a lot.”&lt;/b&gt;
+I had Wetherall escort them back. We would have to savor our gifts later… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Bless you,”&lt;/b&gt; Wetherall thanked, &lt;b&gt;“This is great!”&lt;/b&gt;
+&lt;b&gt;“Can you take them back,”&lt;/b&gt; I asked Wetherall?
+&lt;b&gt;“Maybe I can still get some action on the way,”&lt;/b&gt; Wetherall replied a little too hopefully.
+&lt;b&gt;“Not if you can help it,”&lt;/b&gt; I cautioned.
+Once Wetherall and the villagers left the line, I turned back to the Enemy…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A detachment of burned out soldiers from 3rd Platoon arrived on our hill.
+&lt;b&gt;“Battalion wants a flanking maneuver,”&lt;b&gt; a sergeant called “Chalice” explained, &lt;b&gt;“Ease some of the pressure off 2nd Platoon.”&lt;b&gt;
+&lt;b&gt;“Alright, I’ll go,”&lt;/b&gt; Halo offered, &lt;b&gt;“Let me be lead scout.”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S3</t>
+  </si>
+  <si>
+    <t>D1E3_S4</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Fall back in line, Halo,”&lt;/b&gt; I ordered.
+&lt;b&gt;“They can’t find a snowball in a blizzard,”&lt;/b&gt; Halo argued.
+That Halo could be a real showboater sometimes. Maybe it was worth getting him out of my hair for a bit?
+Then again, could we defend our position with one less man?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Alright,”&lt;/b&gt; I conceded, &lt;b&gt;“But if you get into trouble, fall back here and we’ll cover you.”&lt;/b&gt;
+Chalice nodded. &lt;b&gt;“Let’s move out,”&lt;/b&gt; he ordered, &lt;b&gt;“Front and center, ‘Halo’.”&lt;/b&gt;
+I watched as Halo marched off with the patrol.
+&lt;b&gt;“Come on,”&lt;/b&gt; I said out loud, to no one in particular, &lt;b&gt;“We’ve still got a battle here to fight.”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Why don’t you stay back,”&lt;/b&gt; I advised, &lt;b&gt;“And keep out of trouble, huh?”&lt;/b&gt;
+&lt;b&gt;“Yes, Boss,”&lt;b&gt; Halo mumbled.
+&lt;b&gt;“Good luck,”&lt;/b&gt; I told Chalice.
+&lt;b&gt;“If we get into any trouble, we’ll fall back to HQ,”&lt;/b&gt; Chalice replied, &lt;b&gt;“Don’t want to overburden your supplies.”&lt;/b&gt;
+The detachment marched off, and our hill erupted into conflict once more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[510,998]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[511]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[512,513,514]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[515]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[516,998]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[517]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[518,519]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[519]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[520,521]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[522,523]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[524]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[525]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[526,527]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[999]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,6 +986,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,23 +1270,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1097,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1117,7 +1366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1137,7 +1386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1157,7 +1406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1177,7 +1426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1197,7 +1446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -1217,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1237,7 +1486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1257,7 +1506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1277,7 +1526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>211</v>
       </c>
@@ -1297,7 +1546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>212</v>
       </c>
@@ -1317,7 +1566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>213</v>
       </c>
@@ -1337,7 +1586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>214</v>
       </c>
@@ -1357,7 +1606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>215</v>
       </c>
@@ -1377,7 +1626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>216</v>
       </c>
@@ -1397,7 +1646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>217</v>
       </c>
@@ -1417,7 +1666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>301</v>
       </c>
@@ -1437,7 +1686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>302</v>
       </c>
@@ -1457,7 +1706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>303</v>
       </c>
@@ -1477,7 +1726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>304</v>
       </c>
@@ -1497,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>305</v>
       </c>
@@ -1517,7 +1766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>306</v>
       </c>
@@ -1537,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>307</v>
       </c>
@@ -1557,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>308</v>
       </c>
@@ -1577,7 +1826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="171" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>309</v>
       </c>
@@ -1597,7 +1846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>310</v>
       </c>
@@ -1617,7 +1866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>311</v>
       </c>
@@ -1637,7 +1886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>312</v>
       </c>
@@ -1657,7 +1906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>401</v>
       </c>
@@ -1677,7 +1926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>402</v>
       </c>
@@ -1697,7 +1946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>403</v>
       </c>
@@ -1717,7 +1966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>404</v>
       </c>
@@ -1737,7 +1986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>405</v>
       </c>
@@ -1757,7 +2006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>406</v>
       </c>
@@ -1777,7 +2026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>407</v>
       </c>
@@ -1797,7 +2046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>408</v>
       </c>
@@ -1817,7 +2066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>409</v>
       </c>
@@ -1837,7 +2086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>501</v>
       </c>
@@ -1857,7 +2106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>502</v>
       </c>
@@ -1877,7 +2126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>503</v>
       </c>
@@ -1897,7 +2146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>504</v>
       </c>
@@ -1917,7 +2166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>505</v>
       </c>
@@ -1937,7 +2186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>506</v>
       </c>
@@ -1957,7 +2206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>507</v>
       </c>
@@ -1977,7 +2226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>508</v>
       </c>
@@ -1994,6 +2243,366 @@
         <v>114</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>510</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>511</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="4">
+        <v>999</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>512</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="4">
+        <v>999</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>513</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="4">
+        <v>999</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>514</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="4">
+        <v>999</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>515</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="4">
+        <v>999</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>516</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="4">
+        <v>51</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>517</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="4">
+        <v>999</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>518</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="4">
+        <v>999</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>519</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="4">
+        <v>999</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>520</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="4">
+        <v>999</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>521</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="4">
+        <v>999</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>522</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="4">
+        <v>999</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>523</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="4">
+        <v>999</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>524</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="4">
+        <v>52</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>525</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="4">
+        <v>999</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>526</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="4">
+        <v>999</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>527</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="4">
+        <v>999</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>90</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B3B42-3025-4FB2-B327-1CD4F20E229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE2BD2-6DF2-4730-806F-878B2D451013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="50400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
   <si>
     <t>long</t>
   </si>
@@ -907,6 +907,135 @@
   <si>
     <t>[999]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move:  &lt;b&gt;&lt;color=teal&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take for that unit to move there. You can click on a moving character to cancel the move. 
+Camera: &lt;b&gt;&lt;color=teal&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
+Now try to move &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[131]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can only put a unit in each tile, therefore your units might block each other while moving.
+Now move away  &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt; &lt;/b&gt; so &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt; &lt;/b&gt; can move to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_03</t>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
+Your units will move faster while walking on the tiles that belongs to you
+Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy the bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[133]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_04</t>
+  </si>
+  <si>
+    <t>When your units enterd a tile with controled by an enemy,  they will start a combat. 
+Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.
+Now move &lt;b&gt;&lt;color=green&gt;Wetherall&lt;/color&gt; &lt;/b&gt; to launch a attack on the enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units will fight each other until one is down
+A unit's morale level and ammo will decide how much damage it can deal
+  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
+  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_06</t>
+  </si>
+  <si>
+    <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
+Your units have different roles, which means each unit offers unique support skills. 
+You can view a unit's status by &lt;b&gt;&lt;color=teal&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Not every one of your units are good at fighting. You can always retreat your units by moving them away from the battle tile. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[137]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+  </si>
+  <si>
+    <t>You will get supplies after defeat an enemy. To collect supplies, move your unit to the tile with supplies on it.
+Now sent any one of your units to pick them up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[138]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_09</t>
+  </si>
+  <si>
+    <t>You can set different fortifications on areas you controlled, which will consume supplies.  While fighting in an area with fortification, your units will benefit from it.
+To build a fortification,  click on a tile with one of your units, then click on the construction button.
+Some of the fortifications can only set by certain units
+Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt;  with  &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt; &lt;/b&gt;  any tile you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[139]</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_10</t>
+  </si>
+  <si>
+    <t>You've learned all the basics to fight. Now back to the field and defeat your enemies to defend your ground!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[140]</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,8 +1071,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -951,11 +1086,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,6 +1139,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2566,7 +2732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>526</v>
       </c>
@@ -2586,7 +2752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>527</v>
       </c>
@@ -2605,6 +2771,216 @@
       <c r="F66" s="8" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="67" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
+        <v>221</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="15">
+        <v>31</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
+        <v>222</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="15">
+        <v>32</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
+        <v>223</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="15">
+        <v>33</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
+        <v>224</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="15">
+        <v>34</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="12">
+        <v>225</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="15">
+        <v>35</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
+        <v>226</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="15">
+        <v>36</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="12">
+        <v>227</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="15">
+        <v>37</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>228</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="15">
+        <v>38</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>229</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="15">
+        <v>39</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>230</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="15">
+        <v>40</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE2BD2-6DF2-4730-806F-878B2D451013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EF81E-5279-48CE-8FF3-610919B7DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1438,21 +1438,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:G76"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="4">
-        <v>21</v>
+        <v>999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
@@ -1592,7 +1590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1603,7 +1601,7 @@
         <v>140</v>
       </c>
       <c r="D8" s="4">
-        <v>22</v>
+        <v>999</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>141</v>
@@ -1612,7 +1610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>201</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>202</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>203</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>204</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>211</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>137</v>
       </c>
       <c r="D13" s="1">
-        <v>13</v>
+        <v>999</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>143</v>
@@ -1712,7 +1710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>212</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>82</v>
@@ -1732,7 +1730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>213</v>
       </c>
@@ -1743,7 +1741,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="1">
-        <v>15</v>
+        <v>999</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1752,7 +1750,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>214</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>999</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>84</v>
@@ -1772,7 +1770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>215</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="1">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>85</v>
@@ -1792,7 +1790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>216</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="1">
-        <v>18</v>
+        <v>999</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>86</v>
@@ -1812,7 +1810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>217</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="1">
-        <v>19</v>
+        <v>999</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>87</v>
@@ -1832,7 +1830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>301</v>
       </c>
@@ -1843,7 +1841,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="4">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>60</v>
@@ -1852,7 +1850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>302</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>303</v>
       </c>
@@ -1892,7 +1890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>304</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>305</v>
       </c>
@@ -1932,7 +1930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>306</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>307</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>308</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>309</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>310</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>311</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>312</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>401</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>402</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>403</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>404</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>405</v>
       </c>
@@ -2172,7 +2170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>406</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>407</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>408</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>409</v>
       </c>
@@ -2252,7 +2250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>501</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>98</v>
       </c>
       <c r="D41" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>99</v>
@@ -2272,7 +2270,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>502</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>503</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>504</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>505</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>506</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>507</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>508</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>510</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>511</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>512</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>513</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>514</v>
       </c>
@@ -2512,7 +2510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>515</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>516</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>517</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>518</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>519</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>520</v>
       </c>
@@ -2632,7 +2630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>521</v>
       </c>
@@ -2652,7 +2650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>522</v>
       </c>
@@ -2672,7 +2670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>523</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>524</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>525</v>
       </c>
@@ -2732,7 +2730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>526</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>527</v>
       </c>
@@ -2772,7 +2770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>221</v>
       </c>
@@ -2793,7 +2791,7 @@
       </c>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>222</v>
       </c>
@@ -2814,7 +2812,7 @@
       </c>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>223</v>
       </c>
@@ -2835,7 +2833,7 @@
       </c>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>224</v>
       </c>
@@ -2856,7 +2854,7 @@
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>225</v>
       </c>
@@ -2877,7 +2875,7 @@
       </c>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>226</v>
       </c>
@@ -2898,7 +2896,7 @@
       </c>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>227</v>
       </c>
@@ -2919,7 +2917,7 @@
       </c>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>228</v>
       </c>
@@ -2940,7 +2938,7 @@
       </c>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>229</v>
       </c>
@@ -2961,7 +2959,7 @@
       </c>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>230</v>
       </c>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EF81E-5279-48CE-8FF3-610919B7DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619D93C-748D-4A9B-9D5A-7CF133C13C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,13 +942,6 @@
     <t>Tutorial2.0_03</t>
   </si>
   <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
-Your units will move faster while walking on the tiles that belongs to you
-Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy the bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[133]</t>
   </si>
   <si>
@@ -1036,6 +1029,13 @@
   </si>
   <si>
     <t>[140]</t>
+  </si>
+  <si>
+    <t>The color of tiles shows which side is controlling them.
+You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
+Your units will move faster while walking on the tiles that belongs to you
+Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy a hostile tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1438,7 +1438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1770,7 +1772,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>215</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>216</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>217</v>
       </c>
@@ -1830,1155 +1832,1155 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>221</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="15">
+        <v>31</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>222</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="15">
+        <v>32</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>223</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="15">
+        <v>33</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>224</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="15">
+        <v>34</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>225</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="15">
+        <v>35</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>226</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="15">
+        <v>36</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>227</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="15">
+        <v>37</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>228</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="15">
+        <v>38</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>229</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="15">
+        <v>39</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>230</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="15">
+        <v>40</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>301</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
-        <v>999</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>302</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="4">
-        <v>999</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>303</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="4">
-        <v>999</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>304</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="4">
-        <v>999</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>305</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="4">
-        <v>999</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>306</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="4">
-        <v>999</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>307</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="4">
-        <v>999</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>308</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="4">
-        <v>999</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>309</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="4">
-        <v>999</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>310</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4">
-        <v>999</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>311</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="4">
-        <v>999</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>312</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>302</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>999</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
+        <v>303</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="4">
+        <v>999</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>304</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="4">
+        <v>999</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>305</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="4">
+        <v>999</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>306</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="4">
+        <v>999</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>307</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="4">
+        <v>999</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>308</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4">
+        <v>999</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>309</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="4">
+        <v>999</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>310</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4">
+        <v>999</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>311</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="4">
+        <v>999</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>312</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="4">
+        <v>999</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>401</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D42" s="4">
         <v>9</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>402</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="4">
-        <v>999</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D43" s="4">
+        <v>999</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>403</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="4">
-        <v>999</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D44" s="4">
+        <v>999</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>404</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="4">
-        <v>999</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D45" s="4">
+        <v>999</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>405</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="4">
-        <v>999</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D46" s="4">
+        <v>999</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>406</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="4">
-        <v>999</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D47" s="4">
+        <v>999</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>407</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="4">
-        <v>999</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D48" s="4">
+        <v>999</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>408</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="4">
-        <v>999</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D49" s="4">
+        <v>999</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>409</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="4">
-        <v>999</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D50" s="4">
+        <v>999</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>501</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="4">
-        <v>999</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D51" s="4">
+        <v>999</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>502</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="4">
-        <v>999</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="D52" s="4">
+        <v>999</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>503</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="4">
-        <v>999</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D53" s="4">
+        <v>999</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>504</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="4">
-        <v>999</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>505</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="4">
-        <v>999</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>506</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="4">
-        <v>999</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>507</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="4">
-        <v>999</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>508</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="4">
-        <v>999</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>510</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="4">
-        <v>50</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>511</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="4">
-        <v>999</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>512</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="4">
-        <v>999</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>513</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="4">
-        <v>999</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>514</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="4">
-        <v>999</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>515</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>156</v>
+      <c r="A54" s="4">
+        <v>504</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D54" s="4">
         <v>999</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>184</v>
+      <c r="E54" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>516</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>165</v>
+    <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>505</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D55" s="4">
-        <v>51</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>185</v>
+        <v>999</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>517</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>166</v>
+      <c r="A56" s="4">
+        <v>506</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D56" s="4">
         <v>999</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>186</v>
+      <c r="E56" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>518</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>507</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D57" s="4">
         <v>999</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>187</v>
+      <c r="E57" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>519</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>168</v>
+    <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>508</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D58" s="4">
         <v>999</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>188</v>
+      <c r="E58" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D59" s="4">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4">
         <v>999</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D61" s="4">
         <v>999</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D62" s="4">
         <v>999</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D63" s="4">
-        <v>52</v>
+        <v>999</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D64" s="4">
         <v>999</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4">
-        <v>999</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D66" s="4">
         <v>999</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>221</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="15">
-        <v>31</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
-        <v>222</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="15">
-        <v>32</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="G68" s="16"/>
-    </row>
-    <row r="69" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>223</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="15">
-        <v>33</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>224</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="15">
-        <v>34</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
-        <v>225</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="15">
-        <v>35</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
-        <v>226</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="15">
-        <v>36</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
-        <v>227</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="15">
-        <v>37</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
-        <v>228</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="15">
-        <v>38</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
-        <v>229</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="15">
-        <v>39</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
-        <v>230</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="15">
-        <v>40</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="16"/>
+    <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>518</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="4">
+        <v>999</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>519</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="4">
+        <v>999</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>520</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="4">
+        <v>999</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>521</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="4">
+        <v>999</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>522</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="4">
+        <v>999</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>523</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="4">
+        <v>999</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>524</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="4">
+        <v>52</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>525</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="4">
+        <v>999</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>526</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="4">
+        <v>999</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>527</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="4">
+        <v>999</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619D93C-748D-4A9B-9D5A-7CF133C13C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DC7F7A-DE26-4DF7-AC30-7BE01C900785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="238">
   <si>
     <t>long</t>
   </si>
@@ -1035,6 +1035,45 @@
 You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
 Your units will move faster while walking on the tiles that belongs to you
 Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy a hostile tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[141]</t>
+  </si>
+  <si>
+    <t>Tutorial_02</t>
+  </si>
+  <si>
+    <t>Level1_EnemySpawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1-event1-01-2</t>
+  </si>
+  <si>
+    <t>day1-event1-01-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1-event1-02-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1-event2-01-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1-event2-02-2</t>
+  </si>
+  <si>
+    <t>day1-event2-02-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1-event3-01-2</t>
+  </si>
+  <si>
+    <t>day1-event3-01-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,9 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1436,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1842,8 +1878,8 @@
       <c r="C20" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="15">
-        <v>31</v>
+      <c r="D20" s="4">
+        <v>999</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>197</v>
@@ -1851,7 +1887,7 @@
       <c r="F20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1863,16 +1899,16 @@
       <c r="C21" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="15">
-        <v>32</v>
+      <c r="D21" s="4">
+        <v>999</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1884,8 +1920,8 @@
       <c r="C22" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="15">
-        <v>33</v>
+      <c r="D22" s="4">
+        <v>999</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>203</v>
@@ -1893,7 +1929,7 @@
       <c r="F22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1905,8 +1941,8 @@
       <c r="C23" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="15">
-        <v>34</v>
+      <c r="D23" s="4">
+        <v>999</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>206</v>
@@ -1914,7 +1950,7 @@
       <c r="F23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1926,8 +1962,8 @@
       <c r="C24" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="15">
-        <v>35</v>
+      <c r="D24" s="4">
+        <v>999</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>209</v>
@@ -1935,7 +1971,7 @@
       <c r="F24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1947,8 +1983,8 @@
       <c r="C25" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="15">
-        <v>36</v>
+      <c r="D25" s="4">
+        <v>999</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>212</v>
@@ -1956,7 +1992,7 @@
       <c r="F25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -1968,16 +2004,16 @@
       <c r="C26" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="15">
-        <v>37</v>
+      <c r="D26" s="4">
+        <v>999</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -1989,16 +2025,16 @@
       <c r="C27" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="15">
-        <v>38</v>
+      <c r="D27" s="4">
+        <v>999</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -2010,8 +2046,8 @@
       <c r="C28" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="15">
-        <v>39</v>
+      <c r="D28" s="4">
+        <v>999</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>222</v>
@@ -2019,7 +2055,7 @@
       <c r="F28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -2031,52 +2067,53 @@
       <c r="C29" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="15">
-        <v>40</v>
+      <c r="D29" s="4">
+        <v>999</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>231</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="4">
+        <v>999</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>301</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4">
-        <v>999</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D31" s="4">
+        <v>999</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>302</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="4">
-        <v>999</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
@@ -2084,313 +2121,313 @@
     </row>
     <row r="32" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D32" s="4">
         <v>999</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="4">
         <v>999</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>305</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>304</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>306</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>25</v>
+    <row r="35" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>305</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>307</v>
+    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>306</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>127</v>
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>308</v>
+    <row r="37" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>307</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4">
         <v>999</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>308</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4">
+        <v>999</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>309</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="4">
-        <v>999</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D39" s="4">
+        <v>999</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>310</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="4">
-        <v>999</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>310</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="4">
+        <v>999</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>311</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="4">
-        <v>999</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D41" s="4">
+        <v>999</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>312</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="4">
-        <v>999</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
+        <v>312</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4">
+        <v>999</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>401</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>9</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>402</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="4">
-        <v>999</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
@@ -2404,13 +2441,13 @@
     </row>
     <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4">
         <v>999</v>
@@ -2424,13 +2461,13 @@
     </row>
     <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="4">
         <v>999</v>
@@ -2444,13 +2481,13 @@
     </row>
     <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="4">
         <v>999</v>
@@ -2462,255 +2499,255 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
+        <v>409</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="4">
+        <v>999</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>501</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="4">
-        <v>999</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D52" s="4">
+        <v>999</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>502</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="4">
-        <v>999</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
+        <v>502</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="4">
+        <v>999</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>503</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="4">
-        <v>999</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="D54" s="4">
+        <v>999</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>504</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="4">
-        <v>999</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D55" s="4">
         <v>999</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
+        <v>505</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="4">
+        <v>999</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>506</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="4">
-        <v>999</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D57" s="4">
+        <v>999</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>507</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="4">
-        <v>999</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D58" s="4">
         <v>999</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>510</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>145</v>
+    <row r="59" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>508</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D59" s="4">
-        <v>50</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>999</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>510</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="4">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>511</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="4">
-        <v>999</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D61" s="4">
+        <v>999</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>512</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="4">
-        <v>999</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F61" s="8" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="4">
         <v>999</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="4">
         <v>999</v>
@@ -2719,18 +2756,18 @@
         <v>184</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D64" s="4">
         <v>999</v>
@@ -2739,158 +2776,158 @@
         <v>184</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>515</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="4">
+        <v>999</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>516</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="4">
         <v>51</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="F66" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>517</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="4">
-        <v>999</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D67" s="4">
+        <v>999</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="F67" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>518</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="4">
-        <v>999</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D68" s="4">
+        <v>999</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="F68" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>519</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="4">
-        <v>999</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D69" s="4">
+        <v>999</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="F69" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>520</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="4">
-        <v>999</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D70" s="4">
+        <v>999</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="F70" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>521</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="4">
-        <v>999</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D71" s="4">
+        <v>999</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>522</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="4">
-        <v>999</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F71" s="8" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4">
         <v>999</v>
@@ -2899,78 +2936,78 @@
         <v>191</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
+        <v>523</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="4">
+        <v>999</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>524</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D74" s="4">
         <v>52</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>525</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="4">
-        <v>999</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
+        <v>525</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="4">
+        <v>999</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>526</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D75" s="4">
-        <v>999</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>527</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="D76" s="4">
         <v>999</v>
@@ -2979,7 +3016,27 @@
         <v>194</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>90</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>527</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="4">
+        <v>999</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DC7F7A-DE26-4DF7-AC30-7BE01C900785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FD0FA8-01AF-46EA-AD93-F5525446C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="235">
   <si>
     <t>long</t>
   </si>
@@ -1035,16 +1035,6 @@
 You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
 Your units will move faster while walking on the tiles that belongs to you
 Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy a hostile tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[141]</t>
-  </si>
-  <si>
-    <t>Tutorial_02</t>
-  </si>
-  <si>
-    <t>Level1_EnemySpawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1472,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1869,7 @@
         <v>196</v>
       </c>
       <c r="D20" s="4">
-        <v>999</v>
+        <v>31</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>197</v>
@@ -1900,7 +1890,7 @@
         <v>199</v>
       </c>
       <c r="D21" s="4">
-        <v>999</v>
+        <v>32</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>200</v>
@@ -1921,7 +1911,7 @@
         <v>226</v>
       </c>
       <c r="D22" s="4">
-        <v>999</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>203</v>
@@ -1942,7 +1932,7 @@
         <v>205</v>
       </c>
       <c r="D23" s="4">
-        <v>999</v>
+        <v>34</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>206</v>
@@ -1963,7 +1953,7 @@
         <v>208</v>
       </c>
       <c r="D24" s="4">
-        <v>999</v>
+        <v>35</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>209</v>
@@ -1984,7 +1974,7 @@
         <v>211</v>
       </c>
       <c r="D25" s="4">
-        <v>999</v>
+        <v>36</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>212</v>
@@ -2005,7 +1995,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="4">
-        <v>999</v>
+        <v>37</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>215</v>
@@ -2026,7 +2016,7 @@
         <v>217</v>
       </c>
       <c r="D27" s="4">
-        <v>999</v>
+        <v>38</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>218</v>
@@ -2047,7 +2037,7 @@
         <v>221</v>
       </c>
       <c r="D28" s="4">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>222</v>
@@ -2068,7 +2058,7 @@
         <v>224</v>
       </c>
       <c r="D29" s="4">
-        <v>999</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>225</v>
@@ -2078,42 +2068,41 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>231</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>224</v>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>301</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D30" s="4">
         <v>999</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>301</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
+      <c r="E30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>302</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>999</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
@@ -2121,313 +2110,313 @@
     </row>
     <row r="32" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D32" s="4">
         <v>999</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4">
         <v>999</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>304</v>
+    <row r="34" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>305</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4">
         <v>999</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>305</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>24</v>
+    <row r="35" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>306</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4">
         <v>999</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>306</v>
+    <row r="36" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>307</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D36" s="4">
         <v>999</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>307</v>
+    <row r="37" spans="1:6" ht="138" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>308</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4">
         <v>999</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>308</v>
+    <row r="38" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>309</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4">
         <v>999</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>309</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>310</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
         <v>999</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>310</v>
+    <row r="40" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>311</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4">
         <v>999</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>311</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>312</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4">
         <v>999</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>312</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>401</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D42" s="4">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>401</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>63</v>
+        <v>402</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D43" s="4">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="4">
         <v>999</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="4">
         <v>999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4">
         <v>999</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>999</v>
@@ -2441,13 +2430,13 @@
     </row>
     <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D48" s="4">
         <v>999</v>
@@ -2461,13 +2450,13 @@
     </row>
     <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D49" s="4">
         <v>999</v>
@@ -2481,13 +2470,13 @@
     </row>
     <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D50" s="4">
         <v>999</v>
@@ -2499,255 +2488,255 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D51" s="4">
         <v>999</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D52" s="4">
         <v>999</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4">
         <v>999</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D54" s="4">
         <v>999</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D55" s="4">
         <v>999</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D56" s="4">
         <v>999</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>507</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="4">
+        <v>999</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>506</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="4">
-        <v>999</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D58" s="4">
         <v>999</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>508</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>113</v>
+    <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>510</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="D59" s="4">
-        <v>999</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D61" s="4">
         <v>999</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" s="4">
         <v>999</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D63" s="4">
         <v>999</v>
@@ -2756,18 +2745,18 @@
         <v>184</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D64" s="4">
         <v>999</v>
@@ -2776,158 +2765,158 @@
         <v>184</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4">
-        <v>999</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D66" s="4">
-        <v>51</v>
+        <v>999</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4">
         <v>999</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D68" s="4">
         <v>999</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D69" s="4">
         <v>999</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70" s="4">
         <v>999</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D71" s="4">
         <v>999</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D72" s="4">
         <v>999</v>
@@ -2936,78 +2925,78 @@
         <v>191</v>
       </c>
       <c r="F72" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>524</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="4">
+        <v>52</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>525</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="4">
+        <v>999</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>523</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="4">
-        <v>999</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>524</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="4">
-        <v>52</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" s="4">
         <v>999</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D76" s="4">
         <v>999</v>
@@ -3016,27 +3005,7 @@
         <v>194</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>527</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="4">
-        <v>999</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FD0FA8-01AF-46EA-AD93-F5525446C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F043E20-809B-4595-B84A-D093A89A812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="245">
   <si>
     <t>long</t>
   </si>
@@ -1064,6 +1064,44 @@
   </si>
   <si>
     <t>day1-event3-01-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03</t>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
+  </si>
+  <si>
+    <t>Wave 1 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 2 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 3 coming!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 3! Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 2 Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is level 4! Enemy coming in 1:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,7 +1125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,6 +1141,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,9 +1216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,6 +1228,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1859,214 +1939,214 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>221</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>196</v>
       </c>
       <c r="D20" s="4">
         <v>31</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>222</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="4">
         <v>32</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>223</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>226</v>
       </c>
       <c r="D22" s="4">
         <v>33</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>224</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D23" s="4">
         <v>34</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>225</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D24" s="4">
         <v>35</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>226</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>211</v>
       </c>
       <c r="D25" s="4">
         <v>36</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>227</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>214</v>
       </c>
       <c r="D26" s="4">
         <v>37</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>228</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>217</v>
       </c>
       <c r="D27" s="4">
         <v>38</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>229</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>39</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>230</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D29" s="4">
         <v>40</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2649,363 +2729,583 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="26">
         <v>510</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="11">
         <v>50</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="28" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="26">
         <v>511</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="4">
-        <v>999</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="11">
+        <v>999</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="28" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="26">
         <v>512</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="4">
-        <v>999</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="11">
+        <v>999</v>
+      </c>
+      <c r="E61" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="28" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="26">
         <v>513</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="4">
-        <v>999</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="11">
+        <v>999</v>
+      </c>
+      <c r="E62" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="28" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="26">
         <v>514</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="4">
-        <v>999</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="11">
+        <v>999</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="28" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="26">
         <v>515</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="4">
-        <v>999</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="11">
+        <v>999</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="28" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="26">
         <v>516</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="11">
         <v>51</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="26">
         <v>517</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="4">
-        <v>999</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="11">
+        <v>999</v>
+      </c>
+      <c r="E66" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="26">
         <v>518</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="4">
-        <v>999</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="11">
+        <v>999</v>
+      </c>
+      <c r="E67" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="28" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="26">
         <v>519</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="4">
-        <v>999</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="11">
+        <v>999</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="28" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="26">
         <v>520</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="4">
-        <v>999</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="11">
+        <v>999</v>
+      </c>
+      <c r="E69" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="28" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70" s="26">
         <v>521</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="4">
-        <v>999</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="11">
+        <v>999</v>
+      </c>
+      <c r="E70" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="26">
         <v>522</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="4">
-        <v>999</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="11">
+        <v>999</v>
+      </c>
+      <c r="E71" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72" s="26">
         <v>523</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D72" s="4">
-        <v>999</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="11">
+        <v>999</v>
+      </c>
+      <c r="E72" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="28" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73" s="26">
         <v>524</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="11">
         <v>52</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="28" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="26">
         <v>525</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="4">
-        <v>999</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="11">
+        <v>999</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="28" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="26">
         <v>526</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="4">
-        <v>999</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="11">
+        <v>999</v>
+      </c>
+      <c r="E75" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="28" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76" s="26">
         <v>527</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="4">
-        <v>999</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="11">
+        <v>999</v>
+      </c>
+      <c r="E76" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="28" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>921</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="16">
+        <v>921</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>922</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="16">
+        <v>922</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>923</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" s="16">
+        <v>923</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>931</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="20">
+        <v>931</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20">
+        <v>932</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="20">
+        <v>932</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>933</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="20">
+        <v>933</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
+        <v>934</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="20">
+        <v>934</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>941</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="2">
+        <v>941</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>942</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="2">
+        <v>942</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>943</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="2">
+        <v>943</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>944</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="2">
+        <v>944</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F043E20-809B-4595-B84A-D093A89A812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59107B63-A5CE-4C8A-9B4F-35B62CBF6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="248">
   <si>
     <t>long</t>
   </si>
@@ -1102,6 +1102,18 @@
   </si>
   <si>
     <t>This is level 4! Enemy coming in 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[921]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[923]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[922]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1545,7 +1557,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3114,7 @@
         <v>921</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>40</v>
@@ -3122,7 +3134,7 @@
         <v>922</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>40</v>
@@ -3142,7 +3154,7 @@
         <v>923</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>40</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59107B63-A5CE-4C8A-9B4F-35B62CBF6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC03B9-DC46-49D0-BCB0-F2157F92E131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
   <si>
     <t>long</t>
   </si>
@@ -1067,16 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test_Level_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Level_03</t>
-  </si>
-  <si>
-    <t>Test_Level_04</t>
-  </si>
-  <si>
     <t>Wave 1 coming!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1089,22 +1079,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is level 3! Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is level 2 Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Level_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is level 4! Enemy coming in 1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[921]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1114,6 +1088,126 @@
   </si>
   <si>
     <t>[922]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[931]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[932]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[941]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[942]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02_Enemycoming3</t>
+  </si>
+  <si>
+    <t>[924]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[925]</t>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Echo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave 2 coming!（新敌人介绍：喷火兵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Spartan+新敌人：迫击炮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关开场介绍事件（关卡目标+新人物Echo+敌人将于1分钟后出场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_introduction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[933]</t>
+  </si>
+  <si>
+    <t>[934]</t>
+  </si>
+  <si>
+    <t>[935]</t>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_Enemycoming1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_04_introduction2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[943]</t>
+  </si>
+  <si>
+    <t>[944]</t>
+  </si>
+  <si>
+    <t>[945]</t>
+  </si>
+  <si>
+    <t>第四关开场介绍事件（关卡目标+敌人将于1分钟后出场）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,17 +1290,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,42 +1322,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,11 +1641,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1567,7 +1652,8 @@
     <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,27 +1672,27 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1620,13 +1706,13 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1640,13 +1726,13 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>999</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1660,13 +1746,13 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>999</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1680,13 +1766,13 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>999</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1700,13 +1786,13 @@
       <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1720,442 +1806,442 @@
       <c r="C8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>999</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>201</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="4">
-        <v>999</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="1">
+        <v>999</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>202</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="4">
-        <v>999</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="1">
+        <v>999</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>203</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="4">
-        <v>999</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="1">
+        <v>999</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>204</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
-        <v>999</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="1">
+        <v>999</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>211</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="1">
         <v>999</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>212</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="1">
         <v>999</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>213</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="1">
         <v>999</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>214</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1">
         <v>999</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>215</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="1">
         <v>999</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>216</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="1">
         <v>999</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>217</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="1">
         <v>999</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>221</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>31</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>222</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>32</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>201</v>
       </c>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>223</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>33</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>224</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>34</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>225</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>35</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>226</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>36</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>227</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>37</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="11" t="s">
         <v>213</v>
       </c>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="8">
         <v>228</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>38</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="8">
         <v>229</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>39</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="8">
         <v>230</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>40</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="14"/>
@@ -2170,73 +2256,73 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="4">
-        <v>999</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="1">
+        <v>999</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>302</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="4">
-        <v>999</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="1">
+        <v>999</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>303</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="4">
-        <v>999</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="1">
+        <v>999</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>304</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="4">
-        <v>999</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="1">
+        <v>999</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2244,39 +2330,39 @@
       <c r="A34" s="1">
         <v>305</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="4">
-        <v>999</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="1">
+        <v>999</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>306</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="4">
-        <v>999</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="1">
+        <v>999</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2284,39 +2370,39 @@
       <c r="A36" s="1">
         <v>307</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="4">
-        <v>999</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="1">
+        <v>999</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>308</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="4">
-        <v>999</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="1">
+        <v>999</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2324,39 +2410,39 @@
       <c r="A38" s="1">
         <v>309</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="4">
-        <v>999</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="1">
+        <v>999</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>310</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="4">
-        <v>999</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="1">
+        <v>999</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2364,959 +2450,1039 @@
       <c r="A40" s="1">
         <v>311</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="4">
-        <v>999</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="1">
+        <v>999</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>312</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="4">
-        <v>999</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="1">
+        <v>999</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>401</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>9</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>402</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="4">
-        <v>999</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="1">
+        <v>999</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>403</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="4">
-        <v>999</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="1">
+        <v>999</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>404</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="4">
-        <v>999</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="1">
+        <v>999</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>405</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="4">
-        <v>999</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="1">
+        <v>999</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>406</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="4">
-        <v>999</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="1">
+        <v>999</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>407</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="4">
-        <v>999</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="1">
+        <v>999</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>408</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="4">
-        <v>999</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="1">
+        <v>999</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>409</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="4">
-        <v>999</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="1">
+        <v>999</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>501</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="4">
-        <v>999</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="1">
+        <v>999</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>502</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="4">
-        <v>999</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="1">
+        <v>999</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>503</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="4">
-        <v>999</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="1">
+        <v>999</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>504</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="4">
-        <v>999</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="1">
+        <v>999</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>505</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="4">
-        <v>999</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="1">
+        <v>999</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>506</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="4">
-        <v>999</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="1">
+        <v>999</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>507</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="4">
-        <v>999</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="1">
+        <v>999</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>508</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="4">
-        <v>999</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="1">
+        <v>999</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
+      <c r="A59" s="8">
         <v>510</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>50</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
+      <c r="A60" s="8">
         <v>511</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="11">
-        <v>999</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="D60" s="8">
+        <v>999</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
+      <c r="A61" s="8">
         <v>512</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="11">
-        <v>999</v>
-      </c>
-      <c r="E61" s="26" t="s">
+      <c r="D61" s="8">
+        <v>999</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="8">
         <v>513</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="11">
-        <v>999</v>
-      </c>
-      <c r="E62" s="26" t="s">
+      <c r="D62" s="8">
+        <v>999</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
+      <c r="A63" s="8">
         <v>514</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="11">
-        <v>999</v>
-      </c>
-      <c r="E63" s="26" t="s">
+      <c r="D63" s="8">
+        <v>999</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
+      <c r="A64" s="8">
         <v>515</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="11">
-        <v>999</v>
-      </c>
-      <c r="E64" s="26" t="s">
+      <c r="D64" s="8">
+        <v>999</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
+      <c r="A65" s="8">
         <v>516</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="8">
         <v>51</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="8">
         <v>517</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="11">
-        <v>999</v>
-      </c>
-      <c r="E66" s="26" t="s">
+      <c r="D66" s="8">
+        <v>999</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
+      <c r="A67" s="8">
         <v>518</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="11">
-        <v>999</v>
-      </c>
-      <c r="E67" s="26" t="s">
+      <c r="D67" s="8">
+        <v>999</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
+      <c r="A68" s="8">
         <v>519</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="11">
-        <v>999</v>
-      </c>
-      <c r="E68" s="26" t="s">
+      <c r="D68" s="8">
+        <v>999</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
+      <c r="A69" s="8">
         <v>520</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="11">
-        <v>999</v>
-      </c>
-      <c r="E69" s="26" t="s">
+      <c r="D69" s="8">
+        <v>999</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="8">
         <v>521</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="11">
-        <v>999</v>
-      </c>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="8">
+        <v>999</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
+      <c r="A71" s="8">
         <v>522</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="11">
-        <v>999</v>
-      </c>
-      <c r="E71" s="26" t="s">
+      <c r="D71" s="8">
+        <v>999</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
+      <c r="A72" s="8">
         <v>523</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D72" s="11">
-        <v>999</v>
-      </c>
-      <c r="E72" s="26" t="s">
+      <c r="D72" s="8">
+        <v>999</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
+      <c r="A73" s="8">
         <v>524</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="8">
         <v>52</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
+      <c r="A74" s="8">
         <v>525</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="11">
-        <v>999</v>
-      </c>
-      <c r="E74" s="26" t="s">
+      <c r="D74" s="8">
+        <v>999</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="26">
+      <c r="A75" s="8">
         <v>526</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="11">
-        <v>999</v>
-      </c>
-      <c r="E75" s="26" t="s">
+      <c r="D75" s="8">
+        <v>999</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
+      <c r="A76" s="8">
         <v>527</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="11">
-        <v>999</v>
-      </c>
-      <c r="E76" s="26" t="s">
+      <c r="D76" s="8">
+        <v>999</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+    <row r="77" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
         <v>921</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="18">
+        <v>921</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>922</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="18">
+        <v>922</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <v>923</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" s="16">
-        <v>921</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F77" s="17" t="s">
+      <c r="D79" s="18">
+        <v>923</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
-        <v>922</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="16">
-        <v>922</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="17" t="s">
+    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <v>924</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="18">
+        <v>924</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
-        <v>923</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="16">
-        <v>923</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F79" s="17" t="s">
+    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>925</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="18">
+        <v>925</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
+    <row r="82" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
         <v>931</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="20" t="s">
+      <c r="B82" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="20">
+        <v>931</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="D80" s="20">
-        <v>931</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
-        <v>932</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="20">
-        <v>932</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>933</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D82" s="20">
-        <v>933</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>240</v>
+        <v>255</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="D83" s="20">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
+        <v>933</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="20">
+        <v>933</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
+        <v>934</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="20">
+        <v>934</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20">
+        <v>935</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="20">
+        <v>935</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
         <v>941</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B87" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="22">
+        <v>941</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>942</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="22">
+        <v>942</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>943</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="22">
+        <v>943</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>944</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="22">
+        <v>944</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>945</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D84" s="2">
-        <v>941</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>942</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="2">
-        <v>942</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>943</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="2">
-        <v>943</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>944</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="2">
-        <v>944</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F87" s="7" t="s">
+      <c r="D91" s="22">
+        <v>945</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" s="23" t="s">
         <v>40</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC03B9-DC46-49D0-BCB0-F2157F92E131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA48F87-E3F8-40B7-BA8E-F7DC647F0BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="436">
   <si>
     <t>long</t>
   </si>
@@ -1208,6 +1216,773 @@
   </si>
   <si>
     <t>第四关开场介绍事件（关卡目标+敌人将于1分钟后出场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“We’re pulling back,”&lt;/b&gt; the out-of-breath Chalice replied, &lt;b&gt;“I gotta get back to HQ.”&lt;/b&gt;
+I looked at our new signalman. &lt;b&gt;“Time to work, Echo!”&lt;/b&gt;
+&lt;b&gt;“Two-Sugar HQ”&lt;/b&gt; Echo shouted, &lt;b&gt;“Flanking is tactical retrograde, over!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2-event1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Chalice, what’s going on?!”&lt;/b&gt;
+&lt;b&gt;“They got Halo,”&lt;/b&gt; Chalice confessed.
+&lt;b&gt;“We gotta go back, Boss,”&lt;/b&gt; Echo interrupted.
+&lt;b&gt;“We don’t know he’s alive,”&lt;/b&gt; Chalice shot back.
+&lt;b&gt;“We can’t leave out people behind,”&lt;/b&gt; Echo insisted, &lt;b&gt;“We gotta get Halo out of there!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Did you hit their flank,”&lt;/b&gt; I asked, ignoring Echo’s pleas.
+&lt;b&gt;“Spotted us as soon as we hit the Enemy’s line,”&lt;/b&gt; Chalice explained, &lt;b&gt;“Sir, no one could reach Halo.”&lt;/b&gt;
+&lt;b&gt;“I can,”&lt;/b&gt; Echo insisted, &lt;b&gt;“I can get him away.”&lt;/b&gt;
+But could I afford to risk losing another man at our position… ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1_S3</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“No,”&lt;/b&gt; I ordered, &lt;b&gt;“Fall back!”&lt;/b&gt;
+&lt;b&gt;“Sir… !”&lt;/b&gt;
+&lt;b&gt;“Come on, Echo,”&lt;/b&gt; I asserted, &lt;b&gt;“Fall back!”&lt;/b&gt;
+I ordered covering fire. Echo obeyed, but with a hardened look on his face.
+&lt;b&gt;“Get out of here,”&lt;/b&gt; I shouted at Chalice. The sergeant took his detachment and made their way back up the mountain towards HQ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1_S4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“No,”&lt;/b&gt; I said, &lt;b&gt;“Not one of my boys.”&lt;/b&gt;
+I looked at Echo.
+&lt;b&gt;“I’ll get him, Boss,”&lt;/b&gt; Echo promised.
+&lt;b&gt;“Suppressing fire,”&lt;/b&gt; I ordered!
+Echo grabbed his pistol and ran off towards the Enemy’s center line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E1_S4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E2_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard the sound of engines overhead, and looked up to see airplanes. Kicks started firing at them.
+&lt;b&gt;“Cease fire,”&lt;/b&gt; I quickly ordered, &lt;b&gt;“Cease fire, Goddamnit!”&lt;/b&gt;
+&lt;b&gt;“Boss,”&lt;/b&gt; Kicks asked, &lt;b&gt;“I don’t understand.”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2-event2-01-2</t>
+  </si>
+  <si>
+    <t>D2E2_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“It’s our own planes,”&lt;/b&gt; I shouted back, &lt;b&gt;“They’re bringing supplies, it’s a drop!”&lt;/b&gt;
+The whole squad cheered when they heard that.
+I watched the parachutes drop, and my heart sank a little. Even with clear skies, the bulk of parachutes were drifting towards the village. Someone would need to go retrieve them, leaving us with one less man…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2-event2-02-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E2_S3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Kicks, get yourself into town,”&lt;/b&gt; I ordered, &lt;b&gt;“Get a hot meal, if you can.”&lt;/b&gt;
+Kicks nodded and ran off towards the tree line.
+Hopefully he could get some more medical supplies for us. With the way the Enemy was coming at us today, we would need it…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E2_S3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt; “Forget it,”&lt;b&gt; I said, &lt;b&gt;“None of us can leave the line.”&lt;b&gt;
+&lt;b&gt;“But, Boss… ”&lt;b&gt; Kicks started.
+&lt;b&gt;“I’m not sending away our only medic for a supply run,”&lt;b&gt; I explained, &lt;b&gt;“Besides, those supplies are probably of better use to the villagers anyways.”&lt;b&gt;
+Kicks reluctantly nodded in agreement. We turned our attention away from the skies to the Enemy on the ground.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over the sounds of battle, I heard Kicks shout, &lt;b&gt;“Someone give us a hand here!”&lt;/b&gt;
+He carried an injured Motherland soldier in one arm. Boxes in the other.
+The soldier collapsed, and Kicks dropped the boxes to catch him.
+&lt;b&gt;“Help, help,”&lt;/b&gt; Kicks continued to shout!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“I’m coming, Kicks,”&lt;/b&gt; I shouted. I raced towards him.
+I started to drag the injured soldier, but Kicks stopped me.
+&lt;b&gt;“No, his injuries are too severe,”&lt;b&gt; Kicks shouted, &lt;b&gt;“I’ve got to treat him here!”&lt;b&gt;
+The guy was shot through the stomach. I didn’t need to be a medic to know it was bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Through here,”&lt;/b&gt; I ordered, &lt;b&gt;“Now!”&lt;/b&gt;
+We dragged him toward the treeline. Kicks began digging around in the wound.
+&lt;b&gt;“The artery,”&lt;/b&gt; Kicks insisted, &lt;b&gt;“Gotta find the artery.”&lt;/b&gt;
+A small geyser of blood spurted up from the soldier’s mouth, splattering himself in the face.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I tried to dress the wound with sulfa powder and a bandage. But the bleeding wouldn’t stop.
+Kicks kept digging around for the artery. &lt;b&gt;“I can’t find it!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The blood began to bubble and foam in the soldier’s mouth.
+Kicks shouted in frustration. &lt;b&gt;“I CAN’T FIND IT!”&lt;/b&gt;
+I grabbed Kicks’s arm. He looked at me, and saw the defeat and grief in my eyes.
+Kicks took one look at the lifeless eyes of the dead soldier, and then ripped the rags out of my hands. He threw them on the ground, and then angrily marched off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“The supplies,”&lt;/b&gt; I ordered, gesturing with my arm, &lt;b&gt;“Come on!”&lt;/b&gt;
+Kicks started to argue. &lt;b&gt;“Boss, we can’t just leave… !”&lt;/b&gt;
+&lt;b&gt;“He’s dying anyways,”&lt;/b&gt; I barked back, &lt;b&gt;“Now let’s go!”&lt;/b&gt;
+Kicks gave me an icy look, but finally pulled his hands out from the wound.
+We gathered up the scattered boxes. With arms full, we ran back to the line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E3_S3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2-event3-2</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Traitors,”&lt;/b&gt; someone shouted, &lt;b&gt;“I wish you all a Happy New Year’s Eve!”&lt;/b&gt;
+I looked out onto the battlefield. An Enemy commander stood there, under a flag of truce.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“What’s happy about all this,”&lt;/b&gt; I shot back.
+&lt;b&gt;“Just this,”&lt;/b&gt; the Enemy replied, &lt;b&gt;“You’ve stopped cold everything we’ve thrown at you from the east, south, and west.”&lt;/b&gt;
+&lt;b&gt;“Maybe try the north today,”&lt;/b&gt; I suggested bitterly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3-event1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He ignored my joke. &lt;b&gt;“I demand your honorable surrender,”&lt;/b&gt; the Enemy offered, &lt;b&gt;“To save the Motherland’s encircled troops from total annihilation.”&lt;/b&gt;
+If we surrendered or retreated, 2nd Platoon would be surrounded and annihilated.
+However… could we really hold this mountain until reinforcements arrived? Even now with Spartan here, the defeat of the entire Corps seemed inevitable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S4</t>
+  </si>
+  <si>
+    <t>No one deserves to die on this hill. But this is war: battalion commanders can always justify someone as “acceptable casualties”.
+I looked at my squad. Yes, we were exhausted, but still determined.
+I knew whatever I decided, these warriors would follow my orders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Please rest assured,”&lt;/b&gt; I grimly answered, &lt;b&gt;“Our squad will live and die on this hill.”&lt;/b&gt;
+The Enemy commander glared at me. &lt;b&gt;“Then everyone on this hill is going to die,”&lt;/b&gt; he responded and walked away.
+I looked at my squad as I declared, &lt;b&gt;“I command the best fighters in the world… make THEM know it!”&lt;/b&gt;
+No one cheered or complained. We just re-armed for the Enemy’s return… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Are you willing to guarantee a ceasefire,”&lt;/b&gt; I negotiated, &lt;b&gt;“So we can consider your offer?”&lt;/b&gt;
+&lt;b&gt;“Boss, what are you DOING,”&lt;/b&gt; Spartan shouted?!
+&lt;b&gt;“Of course, take the day,”&lt;/b&gt; the Enemy commander agreed warmly, &lt;b&gt;“We’ll expect your reply by 0300 hours.”&lt;/b&gt;
+Without another word, 2nd Squad marched back to Camp, as the Enemy departed the field…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I laughed and spontaneously exclaimed, &lt;b&gt;“Nuts!”&lt;/b&gt;
+There were a few moments of complete silence.
+&lt;b&gt;“I don’t understand what ‘nuts’ means,”&lt;/b&gt; the Enemy officer asked.
+&lt;b&gt;“Plainly,”&lt;/b&gt; I provided, &lt;b&gt;“‘Go to Hell’.”&lt;/b&gt;
+Things looked their worst for us and our supplies. But I wanted to be blunt. We were not running away!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sound of gunshots dwindled.
+The Enemy covered each other as they left weapons and ammunition scattered all over the hill.
+&lt;b&gt;“Ceasefire,”&lt;/b&gt; I ordered, &lt;b&gt;“Sound off! One!”&lt;/b&gt;
+While the Enemy retreated, I hurriedly counted my warriors. I prayed for no casualties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Two,”&lt;/b&gt; Wetherall called out.
+The familiar voices started reporting one by one. I breathed a silent sigh of relief…
+An unknown voice cried out, &lt;b&gt;“Three!”&lt;/b&gt;
+Suddenly, an unfamiliar voice rang out from the battlefield. The voice of a CHILD! That startled our Squad more than any gunshot! We looked for the source of the voice. We saw a Teenager slowly crawling out from behind the rocks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was one of the folks from the Village, who came to deliver supplies last time! We were overjoyed to see him still alive, but puzzled. Why was he alone?
+He was lying on the ground, in a terrible state. The rags that covered his body were mixed with blood and mud. His hands were clutching a bag.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I did not say anything yet. Just motioned toward the bag with my hand.
+Wetherall only hesitated for a moment before grabbing for the bag.
+The teenager resisted at first, but finally relented. Upon inspection, we saw that it contained some magazines, medicines, and a few steamed buns.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S4</t>
+  </si>
+  <si>
+    <t>I crawled towards him. &lt;b&gt;“Kid, where is your dad,”&lt;/b&gt; I asked.
+Only then did I see that the Teenager’s face was blackened by the smoke. He held back his tears.
+&lt;b&gt;“We… encountered a bombardment on our way back,”&lt;/b&gt; he said, with a choke in his voice, &lt;b&gt;“Dad saved me… ”&lt;/b&gt;
+He did not say more, but he didn’t need to. We all understood what happened…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S5</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Let me stay here! I want to fight too,”&lt;/b&gt; the teenager demanded, &lt;b&gt;“I want REVENGE! I’m not afraid to die!”&lt;/b&gt;
+The tears from the teenager’s eyes mixed with the blood and dust on his clothing. But the will in his eyes was firm. The spark of hatred shone from them.
+&lt;b&gt;“No way. Don’t stay here,”&lt;/b&gt; Wetherall insisted as he stood up, &lt;b&gt;“Let me escort you back!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S6</t>
+  </si>
+  <si>
+    <t>I did not doubt his hatred and determination to fight. But did he really want to endanger himself here?
+Even if he really isn’t afraid to die, we’d need to send someone with him.
+The only sound was the sobs the teenager failed to hold back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S7</t>
+  </si>
+  <si>
+    <t>D3E2_S8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After a moment of silence, I finally managed to say, &lt;b&gt;“Wetherall, you send him back.”&lt;/b&gt;
+&lt;b&gt;“No! Why?! I can fight,” the teenager protested, “This is my home; I want to fight… !”
+“I understand your pain and hatred. I really do. But you must live, son. We didn’t protect your father. But at least we can protect you. Don’t die for hatred. Live so that there is hope.”
+Hopefully the day will never come when this kid needs to fight, I added silently in my heart.
+Despite the teenager’s objections, Wetherall picked up his gun and led the teenager away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Let him stay,”&lt;/b&gt; I said.
+&lt;b&gt;“Boss, it’s too dangerous here,”&lt;/b&gt; Wetherall erupted, &lt;b&gt;“We can’t let him stay here!”&lt;/b&gt;
+&lt;b&gt;“If he has the readiness and determination, he has the right to fight,”&lt;/b&gt; I argued, &lt;b&gt;“We need every bit of strength to hold this position.”&lt;/b&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“You can escort the wounded and carry ammunition to the rear,”&lt;/b&gt; I commanded, &lt;b&gt;“But when the Enemy appears, I want you to hide.”&lt;/b&gt;
+&lt;b&gt;“Yes, sir,”&lt;/b&gt; the teenager shouted, wiping away his tears.
+With a quick salute and a fire in his eyes the teenager began collecting the ammo left behind on the battlefield. It inspired us all to continue the fight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S8B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S8B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S8C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Get out of here,”&lt;/b&gt; I said, &lt;b&gt;“Go home.”&lt;/b&gt;
+&lt;b&gt;“Without protection,”&lt;/b&gt; Wetherall furiously argued, &lt;b&gt;“Sir, he’s just a KID…?!”&lt;/b&gt;
+“Yes, a kid we cannot afford to worry about while defending our post,” I said authoritatively, “I need every soldier I have!”
+“Exactly why I should help,” the teenager angrily shouted, “This is unfair… !”
+I angrily turned and interrupted, “War is not about what is FAIR!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I pointed down the hill in the direction of the village.
+“Your HOME is down there, not up here,” I shouted, “I know you’re struggling, but this is not a battle you can win!”
+Heartbroken, the tears came in full force from the Teenager’s eyes. He stormed off in anger and rejection. The protests from Wetherall were replaced by a stony silence. A little bit of the hope and resolve we had would be gone when the next wave came…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E2_S8C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spartan and I looked out across the ridge, waiting for whatever the Enemy would throw at us today.
+Over the wind, I heard rumbling.
+A TANK?! I didn’t know the Enemy had enough fuel to still run one!
+&lt;b&gt;“Hey, Spartan,”&lt;/b&gt; I shouted at the machine gun nest, “It’s gonna get busy, pal!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Keep that machine ready,”&lt;/b&gt; I told Spartan.
+Spartan gave me a dumbfounded look. &lt;b&gt;“What the Hell else am I supposed to hit that thing with, Boss?!”&lt;/b&gt;
+It was a good question. We didn’t have anything close to anti-tank weapons, but we had to stop it now!
+Suddenly, I heard a wet thud. I looked in the direction of the sound. Spartan had taken a hit to the chest!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“I’m okay,”&lt;/b&gt; Spartan insisted, gritting his teeth.
+He wasn’t, but I needed men on both machine guns to have any hope of taking out that tank!
+I could get Spartan out of his hole and get him a Med Kit. He would survive… but could we, with one less gunner?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1_S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event1-01-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Come on,”&lt;/b&gt; I said as I grabbed Spartan, &lt;b&gt;“Let’s go!”&lt;/b&gt;
+&lt;b&gt;“Hi, Boss,”&lt;/b&gt; Spartan muttered weakly.
+When I finished bandaging the wound, I grabbed the machine gun.
+&lt;b&gt;“Concentrate fire on the tank,”&lt;/b&gt; I ordered!
+It felt like ages to take down that iron beast. But tank or no, still the Enemy came… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1_S4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Machine guns,”&lt;/b&gt; I roared, &lt;b&gt;“Open fire!”&lt;/b&gt;
+The tank was on its last legs when Spartan’s gun suddenly stopped.
+&lt;b&gt;“Are you still with us, Spartan,”&lt;/b&gt; I called out?
+No answer.
+I felt sorry for Spartan, but that tank had been stopped. We held the hill, we were still strong. I wish it hadn’t cost us a good soldier… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E1_S4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A new sound joined the chorus of battle. Airplanes flying overhead, but not ours!
+&lt;b&gt;“Get out quick,”&lt;/b&gt; I shouted, &lt;b&gt;“Clear the field!”&lt;/b&gt;
+There were screams all around as the bombs fell. We were packed so tightly next to the Enemy, they must have gotten hit too.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As suddenly as they came, the bombs stopped. Lucky break: they were off-target!
+Then my heart dropped as I looked over the ridge and saw the real target.
+The Enemy was bombing the village!
+&lt;b&gt;“Boss,”&lt;/b&gt; Echo shouted, as he began to race out of his foxhole, &lt;b&gt;“We’ve gotta help them!”&lt;/b&gt;
+I held up a hand to stop him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The only strategic value in bombing those civilians was to do exactly what Echo wanted: draw us off the hill.
+We could not afford to be even a single man down today. And even if Echo could reach the village, what then? He couldn’t bring them here!
+My heart broke for the villagers. Could I really leave them at the mercy of the Enemy, just to hold this hill?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;“Take an extra canteen with you,”&lt;/b&gt; I suggested, &lt;b&gt;“There will be fires to put out.”&lt;/b&gt;
+We couldn’t really afford to waste water, but those villagers would need it more than we did.
+I ordered covering fire as Echo ran out of his foxhole, and off towards the smoke in the distance… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2_S4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Those people are already dead or dying,” I decided.
+“Please,” Echo pleaded, “I’d only be risking my own life.”
+“You’re already risking it here,” I stated firmly, &lt;b&gt;“We can go help the village after the fight.”&lt;/b&gt;
+I doubted the villagers would still be alive by then, but I didn’t share that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2_S4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event2-01-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event2-02-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Over the chaos and cries of pain, I saw Echo return… but he wasn’t alone.
+&lt;b&gt;“Move,”&lt;/b&gt; he shouted behind him, &lt;b&gt;“Quick!”&lt;/b&gt;
+It seemed like half the village was behind him. One in five was wounded, carried by the others.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[712]</t>
+  </si>
+  <si>
+    <t>[713]</t>
+  </si>
+  <si>
+    <t>[714]</t>
+  </si>
+  <si>
+    <t>[715]</t>
+  </si>
+  <si>
+    <t>[716]</t>
+  </si>
+  <si>
+    <t>[717]</t>
+  </si>
+  <si>
+    <t>[718]</t>
+  </si>
+  <si>
+    <t>[719]</t>
+  </si>
+  <si>
+    <t>[720]</t>
+  </si>
+  <si>
+    <t>[721]</t>
+  </si>
+  <si>
+    <t>[722]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Echo, are you out of your mind,”&lt;/b&gt; I shouted, &lt;b&gt;“Get back here!”&lt;/b&gt;
+&lt;b&gt;“We had to get out of there,”&lt;/b&gt; Echo insisted, &lt;b&gt;“We can’t leave them!”&lt;/b&gt;
+&lt;b&gt;“I’ll get them,”&lt;/b&gt; Halo volunteered.
+The Enemy continued constantly shooting and bombarding our position. Any man of 2nd Squad out of position was likely to get killed by a mortar.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chances were high Halo could save Echo or the villagers, but not both. I’d have to choose.
+Unless everyone joined the rescue? Halo and I could save both together, but could we still fight our way back?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S3</t>
+  </si>
+  <si>
+    <t>[824]</t>
+  </si>
+  <si>
+    <t>[825]</t>
+  </si>
+  <si>
+    <t>[826]</t>
+  </si>
+  <si>
+    <t>[827]</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Get Echo back here,”&lt;/b&gt; I ordered.
+When Halo came back, he practically dragged Echo back by his bloodied jacket.
+&lt;b&gt;“Everything okay, Echo,”&lt;/b&gt; I checked.
+&lt;b&gt;“Yeah,”&lt;/b&gt; Echo said, shaken.
+&lt;b&gt;“Hey, watch the line,”&lt;/b&gt; I ordered, &lt;b&gt;“We’ll avenge them, so get ready!”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Cover those civilians,”&lt;/b&gt; I ordered.
+Halo ran the villagers back to our line. Echo covered them from the treeline. Until a bullet caught Echo in the leg.
+&lt;b&gt;“Oh God,”&lt;/b&gt; Echo screamed, &lt;b&gt;“No!”&lt;/b&gt;
+&lt;b&gt;“Echo,”&lt;/b&gt; I shouted, &lt;b&gt;“Stay still!”&lt;/b&gt;
+The moment I said that, a bullet caught Echo in the forehead. He collapsed in a slump.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t remember the villagers crying and screaming as Halo led them into our camp.
+I barely remember Halo shouting that I needed to shoot.
+I fired robotically, without emotion. The Enemy was hitting us hard. There was no time to grieve. The battle would numb me until then…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S4B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S4B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Let’s go then, Halo,”&lt;/b&gt; I barked, motioning to follow me.
+We covered Echo as he led the villagers across.
+Echo took a hit, so I ran out to help him.
+That’s when a bullet caught Halo through the head.
+There was nothing I could do. I had Echo and a dozen frightened civilians to worry about. And the Enemy…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E3_S4C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event1-02-2</t>
+  </si>
+  <si>
+    <t>[601,602]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[603]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[604,605]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[606]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[607]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[611,612]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[613,614]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[615]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[616]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[621,622]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[623,624]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[625,626]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[627]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[628]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[629]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[701,702]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[703]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[704]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[705,706,707]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S5B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3E1_S5C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[708]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[709]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[710]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[711,712]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[801,802]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[803]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[804,805]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[806]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[807]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[811,812]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[813]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4E2_S3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[814,815]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[816]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[817]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[821,822]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[823]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[824,825,826]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +2006,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,8 +2037,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1286,11 +2067,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,6 +2154,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,9 +2474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2226,263 +3061,263 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="31">
         <v>230</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="33" t="s">
         <v>224</v>
       </c>
       <c r="D29" s="1">
         <v>40</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="31" t="s">
         <v>225</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
         <v>301</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="1">
-        <v>999</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="20">
+        <v>702</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>302</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="1">
-        <v>999</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="20">
+        <v>999</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
         <v>303</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="1">
-        <v>999</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="20">
+        <v>999</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
         <v>304</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="1">
-        <v>999</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="20">
+        <v>999</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
         <v>305</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="1">
-        <v>999</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="20">
+        <v>999</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6" s="35" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>306</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="1">
-        <v>999</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="20">
+        <v>999</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:6" s="35" customFormat="1" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
         <v>307</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="1">
-        <v>999</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="20">
+        <v>999</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="138" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:6" s="35" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>308</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="1">
-        <v>999</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="20">
+        <v>999</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" s="35" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
         <v>309</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="1">
-        <v>999</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="20">
+        <v>999</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6" s="35" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
         <v>310</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="1">
-        <v>999</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="20">
+        <v>999</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:6" s="35" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
         <v>311</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="1">
-        <v>999</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="20">
+        <v>999</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6" s="35" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
         <v>312</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="1">
-        <v>999</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="20">
+        <v>999</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3186,303 +4021,1323 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
+        <v>601</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="18">
+        <v>601</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>602</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="18">
+        <v>999</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <v>603</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="18">
+        <v>999</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <v>604</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="18">
+        <v>999</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>605</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="18">
+        <v>999</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>611</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="18">
+        <v>602</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="18">
+        <v>612</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D83" s="18">
+        <v>999</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>613</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84" s="18">
+        <v>999</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <v>614</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="18">
+        <v>999</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <v>621</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="18">
+        <v>603</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18">
+        <v>622</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" s="18">
+        <v>999</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <v>623</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="18">
+        <v>999</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="18">
+        <v>624</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="18">
+        <v>999</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>625</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="18">
+        <v>999</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="18">
+        <v>626</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="18">
+        <v>999</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="20">
+        <v>701</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="20">
+        <v>701</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="20">
+        <v>702</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="20">
+        <v>999</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="20">
+        <v>703</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D94" s="20">
+        <v>999</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="20">
+        <v>704</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="20">
+        <v>999</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="20">
+        <v>705</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96" s="20">
+        <v>999</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="20">
+        <v>706</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="20">
+        <v>999</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="20">
+        <v>707</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" s="20">
+        <v>999</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="27">
+        <v>711</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="27">
+        <v>999</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="27">
+        <v>712</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" s="27">
+        <v>999</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A101" s="27">
+        <v>713</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="27">
+        <v>999</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="27">
+        <v>714</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="27">
+        <v>999</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="27">
+        <v>715</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="27">
+        <v>999</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="27">
+        <v>716</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="27">
+        <v>999</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A105" s="27">
+        <v>717</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="27">
+        <v>999</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="27">
+        <v>718</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" s="27">
+        <v>999</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="27">
+        <v>719</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="28">
+        <v>999</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="27">
+        <v>720</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D108" s="27">
+        <v>999</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="27">
+        <v>721</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D109" s="27">
+        <v>999</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="27">
+        <v>722</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D110" s="27">
+        <v>999</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="22">
+        <v>801</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" s="22">
+        <v>801</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="22">
+        <v>802</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D112" s="22">
+        <v>999</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A113" s="22">
+        <v>803</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="22">
+        <v>999</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="22">
+        <v>804</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" s="22">
+        <v>999</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+      <c r="A115" s="22">
+        <v>805</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="22">
+        <v>999</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A116" s="22">
+        <v>811</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="22">
+        <v>802</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="22">
+        <v>812</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="22">
+        <v>999</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="22">
+        <v>813</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D118" s="22">
+        <v>999</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A119" s="22">
+        <v>814</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D119" s="22">
+        <v>999</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="22">
+        <v>815</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="22">
+        <v>999</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="22">
+        <v>821</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" s="22">
+        <v>803</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="22">
+        <v>822</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" s="22">
+        <v>999</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="22">
+        <v>823</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D123" s="22">
+        <v>999</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="22">
+        <v>824</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="22">
+        <v>999</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="22">
+        <v>825</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="22">
+        <v>999</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="22">
+        <v>826</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="22">
+        <v>999</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
+        <v>827</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" s="22">
+        <v>999</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18">
         <v>921</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B128" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C128" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D128" s="18">
         <v>921</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E128" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F128" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
+    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18">
         <v>922</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B129" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C129" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D129" s="18">
         <v>922</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E129" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F129" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
+    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18">
         <v>923</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B130" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C130" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D130" s="18">
         <v>923</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E130" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F130" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
+    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18">
         <v>924</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B131" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C131" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D131" s="18">
         <v>924</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E131" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F131" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
+    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18">
         <v>925</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B132" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C132" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D132" s="18">
         <v>925</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E132" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F132" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+    <row r="133" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="20">
         <v>931</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B133" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C133" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D133" s="20">
         <v>931</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E133" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F133" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
+    <row r="134" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="20">
         <v>932</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B134" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C134" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D134" s="20">
         <v>932</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E134" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F134" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+    <row r="135" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="20">
         <v>933</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B135" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C135" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D135" s="20">
         <v>933</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E135" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F135" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
+    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="20">
         <v>934</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B136" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D136" s="20">
         <v>934</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E136" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F136" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20">
+    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="20">
         <v>935</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B137" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D137" s="20">
         <v>935</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E137" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F137" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
+    <row r="138" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22">
         <v>941</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B138" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C138" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D138" s="22">
         <v>941</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E138" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F138" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
+    <row r="139" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="22">
         <v>942</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B139" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C139" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D139" s="22">
         <v>942</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E139" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F139" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22">
+    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="22">
         <v>943</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B140" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C140" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D140" s="22">
         <v>943</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E140" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F140" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
+    <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="22">
         <v>944</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B141" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C141" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D141" s="22">
         <v>944</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E141" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F141" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22">
+    <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="22">
         <v>945</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B142" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C142" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D142" s="22">
         <v>945</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E142" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F142" s="23" t="s">
         <v>40</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA48F87-E3F8-40B7-BA8E-F7DC647F0BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB68CAD-D782-4A8D-AA93-E0E4CB4224F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2476,9 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB68CAD-D782-4A8D-AA93-E0E4CB4224F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEB521-9498-4FE5-8F81-75841B147B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="439">
   <si>
     <t>long</t>
   </si>
@@ -1983,6 +1983,20 @@
   </si>
   <si>
     <t>[824,825,826]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E4_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I looked down at the Enemy line farther down the hill. The Enemy was… firing AWAY from us?!
+I looked and saw Echo and Halo staggering their way back up the hill!
+The pair looked like they had been through Hell together. Halo in particular looked like he had lost a lot of blood.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[631]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,9 +2488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4319,661 +4335,661 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
+    <row r="92" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A92" s="18">
+        <v>631</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D92" s="18">
+        <v>604</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="20">
         <v>701</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B93" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C93" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D93" s="20">
         <v>701</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E93" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
-        <v>702</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D93" s="20">
-        <v>999</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D94" s="20">
         <v>999</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D95" s="20">
         <v>999</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D96" s="20">
         <v>999</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D97" s="20">
         <v>999</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D98" s="20">
         <v>999</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
+    <row r="99" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="20">
+        <v>707</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="20">
+        <v>999</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="27">
         <v>711</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B100" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C100" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="D99" s="27">
-        <v>999</v>
-      </c>
-      <c r="E99" s="27" t="s">
+      <c r="D100" s="27">
+        <v>999</v>
+      </c>
+      <c r="E100" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="27">
-        <v>712</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" s="27">
-        <v>999</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>369</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D101" s="27">
         <v>999</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D102" s="27">
         <v>999</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D103" s="27">
         <v>999</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A104" s="27">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D104" s="27">
         <v>999</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D105" s="27">
         <v>999</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F105" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A106" s="27">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D106" s="27">
         <v>999</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F106" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A107" s="27">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="D107" s="28">
+        <v>336</v>
+      </c>
+      <c r="D107" s="27">
         <v>999</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A108" s="27">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D108" s="27">
+        <v>337</v>
+      </c>
+      <c r="D108" s="28">
         <v>999</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A109" s="27">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D109" s="27">
         <v>999</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A110" s="27">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D110" s="27">
         <v>999</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F110" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="22">
-        <v>801</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="D111" s="22">
-        <v>801</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>351</v>
+    <row r="111" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="27">
+        <v>722</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D111" s="27">
+        <v>999</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D112" s="22">
-        <v>999</v>
+        <v>801</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F112" s="26" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
+        <v>802</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D113" s="22">
+        <v>999</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A114" s="22">
         <v>803</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B114" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="D113" s="22">
-        <v>999</v>
-      </c>
-      <c r="E113" s="22" t="s">
+      <c r="D114" s="22">
+        <v>999</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>424</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="22">
-        <v>804</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D114" s="22">
-        <v>999</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>425</v>
       </c>
       <c r="F114" s="26" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D115" s="22">
         <v>999</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F115" s="26" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
+        <v>805</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D116" s="22">
+        <v>999</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A117" s="22">
         <v>811</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B117" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D117" s="22">
         <v>802</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E117" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="F116" s="26" t="s">
+      <c r="F117" s="26" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="22">
+    <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="22">
         <v>812</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B118" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C118" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="D117" s="22">
-        <v>999</v>
-      </c>
-      <c r="E117" s="22" t="s">
+      <c r="D118" s="22">
+        <v>999</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>428</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="22">
-        <v>813</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="D118" s="22">
-        <v>999</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>430</v>
       </c>
       <c r="F118" s="26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" s="22">
         <v>999</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F119" s="26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D120" s="22">
         <v>999</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F120" s="26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
+        <v>815</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D121" s="22">
+        <v>999</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="22">
         <v>821</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B122" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C122" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D122" s="22">
         <v>803</v>
       </c>
-      <c r="E121" s="22" t="s">
+      <c r="E122" s="22" t="s">
         <v>433</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="22">
-        <v>822</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D122" s="22">
-        <v>999</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>434</v>
       </c>
       <c r="F122" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D123" s="22">
         <v>999</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F123" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D124" s="22">
         <v>999</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>233</v>
@@ -4981,99 +4997,99 @@
     </row>
     <row r="125" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D125" s="22">
         <v>999</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D126" s="22">
         <v>999</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F126" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D127" s="22">
         <v>999</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F127" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18">
+    <row r="128" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="22">
+        <v>827</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D128" s="22">
+        <v>999</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18">
         <v>921</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B129" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C129" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D129" s="18">
         <v>921</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E129" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18">
-        <v>922</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D129" s="18">
-        <v>922</v>
-      </c>
-      <c r="E129" s="18" t="s">
-        <v>240</v>
       </c>
       <c r="F129" s="19" t="s">
         <v>40</v>
@@ -5081,19 +5097,19 @@
     </row>
     <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D130" s="18">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F130" s="19" t="s">
         <v>40</v>
@@ -5101,19 +5117,19 @@
     </row>
     <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D131" s="18">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F131" s="19" t="s">
         <v>40</v>
@@ -5121,59 +5137,59 @@
     </row>
     <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D132" s="18">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
-        <v>931</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="20">
-        <v>931</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F133" s="21" t="s">
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18">
+        <v>925</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="18">
+        <v>925</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F133" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D134" s="20">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F134" s="21" t="s">
         <v>40</v>
@@ -5181,19 +5197,19 @@
     </row>
     <row r="135" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D135" s="20">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F135" s="21" t="s">
         <v>40</v>
@@ -5201,19 +5217,19 @@
     </row>
     <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D136" s="20">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F136" s="21" t="s">
         <v>40</v>
@@ -5221,59 +5237,59 @@
     </row>
     <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D137" s="20">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F137" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22">
-        <v>941</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D138" s="22">
-        <v>941</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F138" s="23" t="s">
+    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
+        <v>935</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138" s="20">
+        <v>935</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>272</v>
       </c>
       <c r="D139" s="22">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F139" s="23" t="s">
         <v>40</v>
@@ -5281,19 +5297,19 @@
     </row>
     <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>235</v>
+        <v>268</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="D140" s="22">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F140" s="23" t="s">
         <v>40</v>
@@ -5301,19 +5317,19 @@
     </row>
     <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D141" s="22">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F141" s="23" t="s">
         <v>40</v>
@@ -5321,21 +5337,41 @@
     </row>
     <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
+        <v>944</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D142" s="22">
+        <v>944</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="22">
         <v>945</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B143" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C143" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D143" s="22">
         <v>945</v>
       </c>
-      <c r="E142" s="22" t="s">
+      <c r="E143" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F143" s="23" t="s">
         <v>40</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEB521-9498-4FE5-8F81-75841B147B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D2F8B-8498-4289-BB0A-0BE5A35B5762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,9 +1622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day4-event1-01-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;b&gt;“Come on,”&lt;/b&gt; I said as I grabbed Spartan, &lt;b&gt;“Let’s go!”&lt;/b&gt;
 &lt;b&gt;“Hi, Boss,”&lt;/b&gt; Spartan muttered weakly.
 When I finished bandaging the wound, I grabbed the machine gun.
@@ -1827,9 +1824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day4-event1-02-2</t>
-  </si>
-  <si>
     <t>[601,602]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1997,6 +1991,14 @@
   </si>
   <si>
     <t>[631]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event1-02-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4-event1-01-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4051,7 @@
         <v>601</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F77" s="24" t="s">
         <v>275</v>
@@ -4069,7 +4071,7 @@
         <v>999</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>275</v>
@@ -4089,7 +4091,7 @@
         <v>999</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F79" s="24" t="s">
         <v>275</v>
@@ -4109,7 +4111,7 @@
         <v>999</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F80" s="24" t="s">
         <v>275</v>
@@ -4129,7 +4131,7 @@
         <v>999</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>275</v>
@@ -4149,7 +4151,7 @@
         <v>602</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>286</v>
@@ -4169,7 +4171,7 @@
         <v>999</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>289</v>
@@ -4189,7 +4191,7 @@
         <v>999</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>286</v>
@@ -4209,7 +4211,7 @@
         <v>999</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>286</v>
@@ -4229,7 +4231,7 @@
         <v>603</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>306</v>
@@ -4249,7 +4251,7 @@
         <v>999</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>306</v>
@@ -4269,7 +4271,7 @@
         <v>999</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>306</v>
@@ -4289,7 +4291,7 @@
         <v>999</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F89" s="24" t="s">
         <v>306</v>
@@ -4309,7 +4311,7 @@
         <v>999</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F90" s="24" t="s">
         <v>306</v>
@@ -4329,7 +4331,7 @@
         <v>999</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>306</v>
@@ -4340,16 +4342,16 @@
         <v>631</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D92" s="18">
         <v>604</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>306</v>
@@ -4369,7 +4371,7 @@
         <v>701</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>310</v>
@@ -4389,7 +4391,7 @@
         <v>999</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>310</v>
@@ -4409,7 +4411,7 @@
         <v>999</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>310</v>
@@ -4429,7 +4431,7 @@
         <v>999</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>310</v>
@@ -4449,7 +4451,7 @@
         <v>999</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>310</v>
@@ -4460,7 +4462,7 @@
         <v>706</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>318</v>
@@ -4469,7 +4471,7 @@
         <v>999</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>310</v>
@@ -4480,7 +4482,7 @@
         <v>707</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>319</v>
@@ -4489,7 +4491,7 @@
         <v>999</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>310</v>
@@ -4509,7 +4511,7 @@
         <v>999</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>322</v>
@@ -4529,7 +4531,7 @@
         <v>999</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>322</v>
@@ -4549,7 +4551,7 @@
         <v>999</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>322</v>
@@ -4569,7 +4571,7 @@
         <v>999</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>322</v>
@@ -4589,7 +4591,7 @@
         <v>999</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>322</v>
@@ -4609,7 +4611,7 @@
         <v>999</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F105" s="29" t="s">
         <v>322</v>
@@ -4629,7 +4631,7 @@
         <v>999</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F106" s="29" t="s">
         <v>322</v>
@@ -4649,7 +4651,7 @@
         <v>999</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>322</v>
@@ -4669,7 +4671,7 @@
         <v>999</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>322</v>
@@ -4689,7 +4691,7 @@
         <v>999</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>322</v>
@@ -4709,7 +4711,7 @@
         <v>999</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F110" s="29" t="s">
         <v>322</v>
@@ -4729,7 +4731,7 @@
         <v>999</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>322</v>
@@ -4749,10 +4751,10 @@
         <v>801</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4769,10 +4771,10 @@
         <v>999</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4789,10 +4791,10 @@
         <v>999</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4800,19 +4802,19 @@
         <v>804</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D115" s="22">
         <v>999</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
@@ -4820,19 +4822,19 @@
         <v>805</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D116" s="22">
         <v>999</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4840,19 +4842,19 @@
         <v>811</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D117" s="22">
         <v>802</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4860,19 +4862,19 @@
         <v>812</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D118" s="22">
         <v>999</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4880,19 +4882,19 @@
         <v>813</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D119" s="22">
         <v>999</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4900,19 +4902,19 @@
         <v>814</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D120" s="22">
         <v>999</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4920,19 +4922,19 @@
         <v>815</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D121" s="22">
         <v>999</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4940,16 +4942,16 @@
         <v>821</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D122" s="22">
         <v>803</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F122" s="26" t="s">
         <v>233</v>
@@ -4960,16 +4962,16 @@
         <v>822</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D123" s="22">
         <v>999</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F123" s="26" t="s">
         <v>233</v>
@@ -4980,16 +4982,16 @@
         <v>823</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D124" s="22">
         <v>999</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>233</v>
@@ -5000,16 +5002,16 @@
         <v>824</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D125" s="22">
         <v>999</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>233</v>
@@ -5020,16 +5022,16 @@
         <v>825</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D126" s="22">
         <v>999</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F126" s="26" t="s">
         <v>233</v>
@@ -5040,16 +5042,16 @@
         <v>826</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D127" s="22">
         <v>999</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F127" s="26" t="s">
         <v>233</v>
@@ -5060,16 +5062,16 @@
         <v>827</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D128" s="22">
         <v>999</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F128" s="26" t="s">
         <v>233</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D2F8B-8498-4289-BB0A-0BE5A35B5762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDF03D-9A8C-47EF-B83A-2BA23C1DD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="450">
   <si>
     <t>long</t>
   </si>
@@ -1075,18 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wave 1 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 2 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 3 coming!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[921]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1141,14 +1129,6 @@
     <t>[925]</t>
   </si>
   <si>
-    <t>第二关开场介绍事件（关卡目标+新人物Echo）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave 2 coming!（新敌人介绍：喷火兵）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test_Level_03_introduction1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,14 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二关开场介绍事件（关卡目标+新人物Spartan+新敌人：迫击炮）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关开场介绍事件（关卡目标+新人物Echo+敌人将于1分钟后出场）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test_Level_04_introduction1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1213,10 +1185,6 @@
   </si>
   <si>
     <t>[945]</t>
-  </si>
-  <si>
-    <t>第四关开场介绍事件（关卡目标+敌人将于1分钟后出场）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D2E1_S1</t>
@@ -2000,6 +1968,86 @@
   <si>
     <t>day4-event1-01-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today's battle requires the defense of two strategic points near the hills.
+Echo: warning the enemy has approached us, it is expected to appear in 1 minute.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New character - Echo: the position is scout and signalman, was a marathon champion in 1942, not very strong in combat, can deploy ammo boxes, and is characterized by fast running.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: It's tranquil. Did you find anything, Echo?
+Echo: Watch out, the enemy has appeared!
+Boss: Everyone is on alert. They are here!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo: Wow, what happened? Did anyone see that?
+Boss: Oops, it's the enemy's flamethrower. Everyone, be careful. He does highly significant damage and will penetrate our defensive buildings to attack us.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Everyone good? It may be the last wave of the enemy's attack. Must persevere!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today's battle requires the defense of two strategic points near the mountains
+New character - Spartan: Position is rifleman, former 1946 shooting champion, very strong in combat, likes to travel light, can move quickly while fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Echo: Boss, I see something strange in the enemy, sh*t it's a mortar!
+Boss: All attention, move quickly. We must clear their mortars first! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Everyone good? They're here!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Hold on, they're here!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Find cover! The last wave of enemies!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: This is the last day, don't let the enemy approach our base. This is the last line of defense!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: They appear!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Everyone good? You must persevere!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: Don't let your guard down.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss: It's almost over, the last wave of enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liujianxin</t>
+  </si>
+  <si>
+    <t>enemy03</t>
   </si>
 </sst>
 </file>
@@ -2492,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4042,19 +4090,19 @@
         <v>601</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D77" s="18">
         <v>601</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4062,19 +4110,19 @@
         <v>602</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D78" s="18">
         <v>999</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4082,19 +4130,19 @@
         <v>603</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D79" s="18">
         <v>999</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.25">
@@ -4102,19 +4150,19 @@
         <v>604</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D80" s="18">
         <v>999</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4122,19 +4170,19 @@
         <v>605</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D81" s="18">
         <v>999</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4142,19 +4190,19 @@
         <v>611</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D82" s="18">
         <v>602</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4162,19 +4210,19 @@
         <v>612</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D83" s="18">
         <v>999</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4182,19 +4230,19 @@
         <v>613</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D84" s="18">
         <v>999</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4202,19 +4250,19 @@
         <v>614</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D85" s="18">
         <v>999</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4222,19 +4270,19 @@
         <v>621</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D86" s="18">
         <v>603</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4242,19 +4290,19 @@
         <v>622</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D87" s="18">
         <v>999</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4262,19 +4310,19 @@
         <v>623</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D88" s="18">
+        <v>999</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F88" s="24" t="s">
         <v>298</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D88" s="18">
-        <v>999</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4282,19 +4330,19 @@
         <v>624</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D89" s="18">
         <v>999</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4302,19 +4350,19 @@
         <v>625</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D90" s="18">
         <v>999</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4322,19 +4370,19 @@
         <v>626</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D91" s="18">
         <v>999</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4342,19 +4390,19 @@
         <v>631</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D92" s="18">
         <v>604</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4362,19 +4410,19 @@
         <v>701</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D93" s="20">
         <v>701</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4382,19 +4430,19 @@
         <v>702</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D94" s="20">
         <v>999</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4402,19 +4450,19 @@
         <v>703</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D95" s="20">
         <v>999</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4422,19 +4470,19 @@
         <v>704</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D96" s="20">
         <v>999</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4442,19 +4490,19 @@
         <v>705</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D97" s="20">
         <v>999</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4462,19 +4510,19 @@
         <v>706</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D98" s="20">
         <v>999</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4482,19 +4530,19 @@
         <v>707</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D99" s="20">
         <v>999</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4502,19 +4550,19 @@
         <v>711</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D100" s="27">
         <v>999</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4522,19 +4570,19 @@
         <v>712</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D101" s="27">
         <v>999</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4542,19 +4590,19 @@
         <v>713</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D102" s="27">
         <v>999</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4562,19 +4610,19 @@
         <v>714</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D103" s="27">
         <v>999</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4582,19 +4630,19 @@
         <v>715</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D104" s="27">
         <v>999</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4602,19 +4650,19 @@
         <v>716</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D105" s="27">
         <v>999</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4622,19 +4670,19 @@
         <v>717</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D106" s="27">
         <v>999</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4642,19 +4690,19 @@
         <v>718</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D107" s="27">
         <v>999</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4662,19 +4710,19 @@
         <v>719</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D108" s="28">
         <v>999</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4682,19 +4730,19 @@
         <v>720</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D109" s="27">
         <v>999</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4702,19 +4750,19 @@
         <v>721</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D110" s="27">
         <v>999</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4722,19 +4770,19 @@
         <v>722</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D111" s="27">
         <v>999</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4742,19 +4790,19 @@
         <v>801</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D112" s="22">
         <v>801</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4762,19 +4810,19 @@
         <v>802</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D113" s="22">
         <v>999</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4782,19 +4830,19 @@
         <v>803</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D114" s="22">
         <v>999</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4802,19 +4850,19 @@
         <v>804</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D115" s="22">
         <v>999</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
@@ -4822,19 +4870,19 @@
         <v>805</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D116" s="22">
         <v>999</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4842,19 +4890,19 @@
         <v>811</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D117" s="22">
         <v>802</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4862,19 +4910,19 @@
         <v>812</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C118" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" s="22">
+        <v>999</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="D118" s="22">
-        <v>999</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4882,19 +4930,19 @@
         <v>813</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D119" s="22">
         <v>999</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4902,19 +4950,19 @@
         <v>814</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D120" s="22">
         <v>999</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4922,19 +4970,19 @@
         <v>815</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D121" s="22">
         <v>999</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4942,16 +4990,16 @@
         <v>821</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D122" s="22">
         <v>803</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F122" s="26" t="s">
         <v>233</v>
@@ -4962,16 +5010,16 @@
         <v>822</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D123" s="22">
         <v>999</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F123" s="26" t="s">
         <v>233</v>
@@ -4982,16 +5030,16 @@
         <v>823</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D124" s="22">
         <v>999</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>233</v>
@@ -5002,16 +5050,16 @@
         <v>824</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D125" s="22">
         <v>999</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>233</v>
@@ -5022,16 +5070,16 @@
         <v>825</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D126" s="22">
         <v>999</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F126" s="26" t="s">
         <v>233</v>
@@ -5042,16 +5090,16 @@
         <v>826</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D127" s="22">
         <v>999</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F127" s="26" t="s">
         <v>233</v>
@@ -5062,16 +5110,16 @@
         <v>827</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D128" s="22">
         <v>999</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F128" s="26" t="s">
         <v>233</v>
@@ -5082,79 +5130,79 @@
         <v>921</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>257</v>
+        <v>244</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="D129" s="18">
         <v>921</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <v>922</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="D130" s="18">
         <v>922</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <v>923</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>235</v>
+        <v>433</v>
       </c>
       <c r="D131" s="18">
         <v>923</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <v>924</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>253</v>
+        <v>434</v>
       </c>
       <c r="D132" s="18">
         <v>924</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5162,59 +5210,59 @@
         <v>925</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="D133" s="18">
         <v>925</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>931</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>256</v>
+        <v>436</v>
       </c>
       <c r="D134" s="20">
         <v>931</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>932</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>256</v>
+        <v>437</v>
       </c>
       <c r="D135" s="20">
         <v>932</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>40</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5222,19 +5270,19 @@
         <v>933</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
       <c r="D136" s="20">
         <v>933</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5242,19 +5290,19 @@
         <v>934</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="D137" s="20">
         <v>934</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5262,39 +5310,39 @@
         <v>935</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>237</v>
+        <v>440</v>
       </c>
       <c r="D138" s="20">
         <v>935</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="17" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>941</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="D139" s="22">
         <v>941</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5302,19 +5350,19 @@
         <v>942</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="D140" s="22">
         <v>942</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5322,19 +5370,19 @@
         <v>943</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>235</v>
+        <v>443</v>
       </c>
       <c r="D141" s="22">
         <v>943</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5342,19 +5390,19 @@
         <v>944</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="D142" s="22">
         <v>944</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5362,19 +5410,19 @@
         <v>945</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="D143" s="22">
         <v>945</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDF03D-9A8C-47EF-B83A-2BA23C1DD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D091CAF1-BB59-4189-BA2B-B35B239B2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129:F143"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D091CAF1-BB59-4189-BA2B-B35B239B2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB8B89-E572-4A57-9534-7E737462C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,12 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A detachment of burned out soldiers from 3rd Platoon arrived on our hill.
-&lt;b&gt;“Battalion wants a flanking maneuver,”&lt;b&gt; a sergeant called “Chalice” explained, &lt;b&gt;“Ease some of the pressure off 2nd Platoon.”&lt;b&gt;
-&lt;b&gt;“Alright, I’ll go,”&lt;/b&gt; Halo offered, &lt;b&gt;“Let me be lead scout.”&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1E3_S2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2048,6 +2042,12 @@
   </si>
   <si>
     <t>enemy03</t>
+  </si>
+  <si>
+    <t>A detachment of burned out soldiers from 3rd Platoon arrived on our hill.
+&lt;b&gt;“Battalion wants a flanking maneuver,”&lt;/b&gt; a sergeant called “Chalice” explained, &lt;b&gt;“Ease some of the pressure off 2nd Platoon.”&lt;/b&gt;
+&lt;b&gt;“Alright, I’ll go,”&lt;/b&gt; Halo offered, &lt;b&gt;“Let me be lead scout.”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2940,16 +2940,16 @@
         <v>221</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="D20" s="1">
         <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>74</v>
@@ -2961,19 +2961,19 @@
         <v>222</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="D21" s="1">
         <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="G21" s="14"/>
     </row>
@@ -2982,16 +2982,16 @@
         <v>223</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="1">
         <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>78</v>
@@ -3003,16 +3003,16 @@
         <v>224</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="D23" s="1">
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>75</v>
@@ -3024,16 +3024,16 @@
         <v>225</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D24" s="1">
         <v>35</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>76</v>
@@ -3045,16 +3045,16 @@
         <v>226</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="D25" s="1">
         <v>36</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>77</v>
@@ -3066,19 +3066,19 @@
         <v>227</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="D26" s="1">
         <v>37</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="14"/>
     </row>
@@ -3087,19 +3087,19 @@
         <v>228</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="D27" s="1">
         <v>38</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="G27" s="14"/>
     </row>
@@ -3108,16 +3108,16 @@
         <v>229</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="D28" s="1">
         <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>108</v>
@@ -3129,16 +3129,16 @@
         <v>230</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>223</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>224</v>
       </c>
       <c r="D29" s="1">
         <v>40</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>17</v>
@@ -3739,10 +3739,10 @@
         <v>50</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -3759,10 +3759,10 @@
         <v>999</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -3779,10 +3779,10 @@
         <v>999</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -3799,10 +3799,10 @@
         <v>999</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -3819,10 +3819,10 @@
         <v>999</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -3839,10 +3839,10 @@
         <v>999</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -3859,10 +3859,10 @@
         <v>51</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -3879,10 +3879,10 @@
         <v>999</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -3899,10 +3899,10 @@
         <v>999</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -3919,10 +3919,10 @@
         <v>999</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
@@ -3939,10 +3939,10 @@
         <v>999</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
         <v>999</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -3979,10 +3979,10 @@
         <v>999</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
@@ -3999,10 +3999,10 @@
         <v>999</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
@@ -4013,16 +4013,16 @@
         <v>173</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="D73" s="8">
         <v>52</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -4030,19 +4030,19 @@
         <v>525</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D74" s="8">
         <v>999</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
@@ -4050,19 +4050,19 @@
         <v>526</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" s="8">
         <v>999</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
@@ -4070,19 +4070,19 @@
         <v>527</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="8">
         <v>999</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4090,19 +4090,19 @@
         <v>601</v>
       </c>
       <c r="B77" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="D77" s="18">
         <v>601</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4110,19 +4110,19 @@
         <v>602</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D78" s="18">
         <v>999</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4130,19 +4130,19 @@
         <v>603</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D79" s="18">
         <v>999</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.25">
@@ -4150,19 +4150,19 @@
         <v>604</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="18">
         <v>999</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4170,19 +4170,19 @@
         <v>605</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="18">
         <v>999</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4190,19 +4190,19 @@
         <v>611</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="D82" s="18">
         <v>602</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4210,19 +4210,19 @@
         <v>612</v>
       </c>
       <c r="B83" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D83" s="18">
+        <v>999</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="D83" s="18">
-        <v>999</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4230,19 +4230,19 @@
         <v>613</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="D84" s="18">
         <v>999</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4250,19 +4250,19 @@
         <v>614</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>285</v>
-      </c>
       <c r="D85" s="18">
         <v>999</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4270,19 +4270,19 @@
         <v>621</v>
       </c>
       <c r="B86" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="D86" s="18">
         <v>603</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4290,19 +4290,19 @@
         <v>622</v>
       </c>
       <c r="B87" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>289</v>
-      </c>
       <c r="D87" s="18">
         <v>999</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4310,19 +4310,19 @@
         <v>623</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>291</v>
-      </c>
       <c r="D88" s="18">
         <v>999</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4330,19 +4330,19 @@
         <v>624</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D89" s="18">
         <v>999</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4350,19 +4350,19 @@
         <v>625</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D90" s="18">
         <v>999</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4370,19 +4370,19 @@
         <v>626</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="18">
+        <v>999</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F91" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D91" s="18">
-        <v>999</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4390,19 +4390,19 @@
         <v>631</v>
       </c>
       <c r="B92" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>426</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>427</v>
       </c>
       <c r="D92" s="18">
         <v>604</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4410,19 +4410,19 @@
         <v>701</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" s="20">
         <v>701</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4430,19 +4430,19 @@
         <v>702</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C94" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D94" s="20">
+        <v>999</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F94" s="25" t="s">
         <v>301</v>
-      </c>
-      <c r="D94" s="20">
-        <v>999</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4450,19 +4450,19 @@
         <v>703</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D95" s="20">
         <v>999</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4470,19 +4470,19 @@
         <v>704</v>
       </c>
       <c r="B96" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C96" s="21" t="s">
-        <v>307</v>
-      </c>
       <c r="D96" s="20">
         <v>999</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4490,19 +4490,19 @@
         <v>705</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D97" s="20">
         <v>999</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4510,19 +4510,19 @@
         <v>706</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D98" s="20">
         <v>999</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4530,19 +4530,19 @@
         <v>707</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D99" s="20">
         <v>999</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4550,19 +4550,19 @@
         <v>711</v>
       </c>
       <c r="B100" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="27">
+        <v>999</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" s="27">
-        <v>999</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4570,19 +4570,19 @@
         <v>712</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D101" s="27">
         <v>999</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4590,19 +4590,19 @@
         <v>713</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D102" s="27">
         <v>999</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4610,19 +4610,19 @@
         <v>714</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" s="27">
         <v>999</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4630,19 +4630,19 @@
         <v>715</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D104" s="27">
         <v>999</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4650,19 +4650,19 @@
         <v>716</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D105" s="27">
         <v>999</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4670,19 +4670,19 @@
         <v>717</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" s="27">
         <v>999</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4690,19 +4690,19 @@
         <v>718</v>
       </c>
       <c r="B107" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C107" s="28" t="s">
-        <v>328</v>
-      </c>
       <c r="D107" s="27">
         <v>999</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -4710,19 +4710,19 @@
         <v>719</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D108" s="28">
         <v>999</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4730,19 +4730,19 @@
         <v>720</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D109" s="27">
         <v>999</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4750,19 +4750,19 @@
         <v>721</v>
       </c>
       <c r="B110" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="C110" s="28" t="s">
-        <v>334</v>
-      </c>
       <c r="D110" s="27">
         <v>999</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4770,19 +4770,19 @@
         <v>722</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D111" s="27">
         <v>999</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4790,19 +4790,19 @@
         <v>801</v>
       </c>
       <c r="B112" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="D112" s="22">
         <v>801</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4810,19 +4810,19 @@
         <v>802</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113" s="22">
         <v>999</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4830,19 +4830,19 @@
         <v>803</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D114" s="22">
         <v>999</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4850,19 +4850,19 @@
         <v>804</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D115" s="22">
         <v>999</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
@@ -4870,19 +4870,19 @@
         <v>805</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D116" s="22">
         <v>999</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4890,19 +4890,19 @@
         <v>811</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D117" s="22">
         <v>802</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -4910,19 +4910,19 @@
         <v>812</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D118" s="22">
         <v>999</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4930,19 +4930,19 @@
         <v>813</v>
       </c>
       <c r="B119" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D119" s="22">
+        <v>999</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="C119" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="D119" s="22">
-        <v>999</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>420</v>
-      </c>
       <c r="F119" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -4950,19 +4950,19 @@
         <v>814</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D120" s="22">
         <v>999</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -4970,19 +4970,19 @@
         <v>815</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D121" s="22">
         <v>999</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -4990,19 +4990,19 @@
         <v>821</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D122" s="22">
         <v>803</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
@@ -5010,19 +5010,19 @@
         <v>822</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D123" s="22">
         <v>999</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -5030,19 +5030,19 @@
         <v>823</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D124" s="22">
         <v>999</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -5050,19 +5050,19 @@
         <v>824</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D125" s="22">
         <v>999</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -5070,19 +5070,19 @@
         <v>825</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D126" s="22">
         <v>999</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -5090,19 +5090,19 @@
         <v>826</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D127" s="22">
         <v>999</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
@@ -5110,19 +5110,19 @@
         <v>827</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D128" s="22">
         <v>999</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,16 +5130,16 @@
         <v>921</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D129" s="18">
         <v>921</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F129" s="19" t="s">
         <v>91</v>
@@ -5150,19 +5150,19 @@
         <v>922</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D130" s="18">
         <v>922</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
@@ -5170,19 +5170,19 @@
         <v>923</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D131" s="18">
         <v>923</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -5190,19 +5190,19 @@
         <v>924</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D132" s="18">
         <v>924</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5210,19 +5210,19 @@
         <v>925</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D133" s="18">
         <v>925</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -5230,19 +5230,19 @@
         <v>931</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D134" s="20">
         <v>931</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -5250,19 +5250,19 @@
         <v>932</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D135" s="20">
         <v>932</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5270,19 +5270,19 @@
         <v>933</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D136" s="20">
         <v>933</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5290,19 +5290,19 @@
         <v>934</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D137" s="20">
         <v>934</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5310,19 +5310,19 @@
         <v>935</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D138" s="20">
         <v>935</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="17" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -5330,16 +5330,16 @@
         <v>941</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D139" s="22">
         <v>941</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F139" s="23" t="s">
         <v>91</v>
@@ -5350,19 +5350,19 @@
         <v>942</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140" s="22">
         <v>942</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5370,19 +5370,19 @@
         <v>943</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D141" s="22">
         <v>943</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5390,19 +5390,19 @@
         <v>944</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D142" s="22">
         <v>944</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5410,19 +5410,19 @@
         <v>945</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D143" s="22">
         <v>945</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB8B89-E572-4A57-9534-7E737462C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0DA8E4-0B23-4FC5-BE13-3BB308324B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -915,12 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Move:  &lt;b&gt;&lt;color=teal&gt;Drag units to move.&lt;/color&gt; &lt;/b&gt;The longer the route you draw, the longer it will take for that unit to move there. You can click on a moving character to cancel the move. 
-Camera: &lt;b&gt;&lt;color=teal&gt;WASD/Arrows/Holding mouse wheel to move camera; &lt;/color&gt; &lt;/b&gt;Scroll mouse wheels to zoom in/out
-Now try to move &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt; &lt;/b&gt;to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[131]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,11 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You can only put a unit in each tile, therefore your units might block each other while moving.
-Now move away  &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt; &lt;/b&gt; so &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt; &lt;/b&gt; can move to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[132]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -950,37 +939,18 @@
     <t>Tutorial2.0_04</t>
   </si>
   <si>
-    <t>When your units enterd a tile with controled by an enemy,  they will start a combat. 
-Units will constantly consume ammo duing combat.Their damage will decrease once they ran out of ammo.
-Now move &lt;b&gt;&lt;color=green&gt;Wetherall&lt;/color&gt; &lt;/b&gt; to launch a attack on the enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[134]</t>
   </si>
   <si>
     <t>Tutorial2.0_05</t>
   </si>
   <si>
-    <t xml:space="preserve">Units will fight each other until one is down
-A unit's morale level and ammo will decide how much damage it can deal
-  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units will deal more damage when they have higher morale level.
-  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume ammo during combat. They will deal less damage when they ran out of ammo.    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[135]</t>
   </si>
   <si>
     <t>Tutorial2.0_06</t>
   </si>
   <si>
-    <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
-Your units have different roles, which means each unit offers unique support skills. 
-You can view a unit's status by &lt;b&gt;&lt;color=teal&gt;hover the mouse &lt;/color&gt;&lt;/b&gt; on them</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[136]</t>
   </si>
   <si>
@@ -988,21 +958,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Not every one of your units are good at fighting. You can always retreat your units by moving them away from the battle tile. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[137]</t>
   </si>
   <si>
     <t>Tutorial2.0_08</t>
   </si>
   <si>
-    <t>You will get supplies after defeat an enemy. To collect supplies, move your unit to the tile with supplies on it.
-Now sent any one of your units to pick them up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[138]</t>
   </si>
   <si>
@@ -1013,13 +974,6 @@
     <t>Tutorial2.0_09</t>
   </si>
   <si>
-    <t>You can set different fortifications on areas you controlled, which will consume supplies.  While fighting in an area with fortification, your units will benefit from it.
-To build a fortification,  click on a tile with one of your units, then click on the construction button.
-Some of the fortifications can only set by certain units
-Now try to set a &lt;b&gt;&lt;color=red&gt;med kit&lt;/color&gt;&lt;/b&gt;  with  &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt; &lt;/b&gt;  any tile you want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[139]</t>
   </si>
   <si>
@@ -1031,13 +985,6 @@
   </si>
   <si>
     <t>[140]</t>
-  </si>
-  <si>
-    <t>The color of tiles shows which side is controlling them.
-You can occupy a hostile tile by putting your units on it. Be careful that the occupation process could be interrupted by moving or fighting.
-Your units will move faster while walking on the tiles that belongs to you
-Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy a hostile tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>day1-event1-01-2</t>
@@ -2047,6 +1994,58 @@
     <t>A detachment of burned out soldiers from 3rd Platoon arrived on our hill.
 &lt;b&gt;“Battalion wants a flanking maneuver,”&lt;/b&gt; a sergeant called “Chalice” explained, &lt;b&gt;“Ease some of the pressure off 2nd Platoon.”&lt;/b&gt;
 &lt;b&gt;“Alright, I’ll go,”&lt;/b&gt; Halo offered, &lt;b&gt;“Let me be lead scout.”&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move:  Click and hold the Left Mouse Button on a unit to drag them. &lt;b&gt;&lt;color=teal&gt;Drag units to move.&lt;/color&gt;&lt;/b&gt; The longer the route you draw, the longer it will take for that unit to move there. You can click on a unit as they are moving to cancel the move. 
+Camera: &lt;b&gt;&lt;color=teal&gt;You can move the camera by pressing WASD, the Arrow Keys, or holding the Center Mouse Button/Wheel.&lt;/color&gt;&lt;/b&gt; Scrolling the Mouse Wheel zooms the camera in/out.
+Now try to move &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt;&lt;/b&gt; to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can only put a single unit on each tile. Remember this, since your units might block each other while attempting to move!
+Now move &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt; &lt;/b&gt; out of the way, allowing &lt;b&gt;&lt;color=green&gt;Boss&lt;/color&gt; &lt;/b&gt; to complete his move to the &lt;b&gt;&lt;color=red&gt;command post&lt;/color&gt;&lt;/b&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The color of each tile shows which side is controlling that territory.
+Your units will move faster while walking on the tiles that belongs to you.
+Enemy units will try to claim your tiles by occupying them. Likewise, you can occupy a hostile tile by putting your unit on it. Be careful: the process to claim a tile can be interrupted by moving or fighting.
+Now move &lt;b&gt;&lt;color=green&gt;Halo&lt;/color&gt; &lt;/b&gt; to occupy a hostile tile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When your unit tries to enter a tile occupied by an enemy unit,  they will start a combat.
+Now move &lt;b&gt;&lt;color=green&gt;Wetherall&lt;/color&gt; &lt;/b&gt; to launch an attack on an enemy!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Units will fight each other in combat until one dies or retreats.
+How much damage a unit can deal is decided by their level of Morale and Ammo.
+  &lt;b&gt;&lt;color=orange&gt;Morale &lt;/color&gt;&lt;/b&gt;: Units get a boost to the damage they deal when they have higher Morale level. Morale increases or decreases depending on player choices made during narrative pop-up events.
+  &lt;b&gt;&lt;color=magenta&gt;Ammo &lt;/color&gt;&lt;/b&gt;: Units will constantly consume Ammo during combat. Once a unit runs out of Ammo, the damage they can deal decreases.   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a unit is in combat, friendly units in neighboring tiles will offer support. (As shown by the green line.)
+Your units have different roles, which means each unit offers unique support skills. 
+You can view a unit's status by &lt;b&gt;&lt;color=teal&gt;hovering the mouse cursor&lt;/color&gt;&lt;/b&gt; over that unit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Not every unit is good in a fight. You can always order a retreat by moving a unit away from the tile where combat is taking place. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After defeating an enemy, you can collect the Supplies on them. To collect Supplies, move your unit to the tile with Supplies on it.
+Now send any of your units to pick up the Supplies where that enemy unit was.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can set different Fortifications on areas you control. Building a Fortification will consume Supplies.  If your unit gets into combat while occupying an area with a Fortification, your unit will benefit from it during the fight.
+Some Fortifications can only be built by certain units.
+To build a Fortification,  click on a tile occupied by one of your units. A dialogue box with a crossed wrench and hammer will appear. This is the Construction Button.
+Now on the tile with &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt;&lt;/b&gt; (you can move Kicks to a different tile first, if you prefer), click on the tile and then the Construction Button to set a &lt;b&gt;&lt;color=red&gt;Med Kit&lt;/color&gt;&lt;/b&gt; on that tile.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,22 +2539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="7" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>202</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>203</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>204</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>211</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>212</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>213</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>214</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>215</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>216</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>217</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>221</v>
       </c>
@@ -2943,209 +2942,209 @@
         <v>194</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>195</v>
+        <v>441</v>
       </c>
       <c r="D20" s="1">
         <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>222</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
       <c r="D21" s="1">
         <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>223</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="D22" s="1">
         <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>224</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>204</v>
+        <v>444</v>
       </c>
       <c r="D23" s="1">
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>225</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>207</v>
+        <v>445</v>
       </c>
       <c r="D24" s="1">
         <v>35</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>226</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="D25" s="1">
         <v>36</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>227</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>447</v>
       </c>
       <c r="D26" s="1">
         <v>37</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>228</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="D27" s="1">
         <v>38</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>229</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="D28" s="1">
         <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>230</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D29" s="1">
         <v>40</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>301</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>302</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>303</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>304</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>305</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="35" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="35" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>306</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="35" customFormat="1" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="35" customFormat="1" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>307</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="35" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="35" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>308</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="35" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="35" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>309</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="35" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="35" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>310</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="35" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="35" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>311</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="35" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="35" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>312</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>401</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>402</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>403</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>404</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>405</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>406</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>407</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>408</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>409</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>501</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>502</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>503</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>504</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>505</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>506</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>507</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>508</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>510</v>
       </c>
@@ -3742,10 +3741,10 @@
         <v>180</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>511</v>
       </c>
@@ -3762,10 +3761,10 @@
         <v>181</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>512</v>
       </c>
@@ -3782,10 +3781,10 @@
         <v>182</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>513</v>
       </c>
@@ -3802,10 +3801,10 @@
         <v>183</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>514</v>
       </c>
@@ -3822,10 +3821,10 @@
         <v>183</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>515</v>
       </c>
@@ -3842,10 +3841,10 @@
         <v>183</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>516</v>
       </c>
@@ -3862,10 +3861,10 @@
         <v>184</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>517</v>
       </c>
@@ -3882,10 +3881,10 @@
         <v>185</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>518</v>
       </c>
@@ -3902,10 +3901,10 @@
         <v>186</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>519</v>
       </c>
@@ -3922,10 +3921,10 @@
         <v>187</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>520</v>
       </c>
@@ -3942,10 +3941,10 @@
         <v>188</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>521</v>
       </c>
@@ -3962,10 +3961,10 @@
         <v>189</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>522</v>
       </c>
@@ -3982,10 +3981,10 @@
         <v>190</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>523</v>
       </c>
@@ -4002,10 +4001,10 @@
         <v>190</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>524</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>173</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D73" s="8">
         <v>52</v>
@@ -4022,10 +4021,10 @@
         <v>191</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>525</v>
       </c>
@@ -4042,10 +4041,10 @@
         <v>192</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>526</v>
       </c>
@@ -4062,10 +4061,10 @@
         <v>193</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>527</v>
       </c>
@@ -4082,1347 +4081,1347 @@
         <v>193</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <v>601</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D77" s="18">
         <v>601</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <v>602</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D78" s="18">
         <v>999</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <v>603</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D79" s="18">
         <v>999</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="15" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <v>604</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D80" s="18">
         <v>999</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <v>605</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D81" s="18">
         <v>999</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>611</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D82" s="18">
         <v>602</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="15" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>612</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D83" s="18">
         <v>999</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <v>613</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D84" s="18">
         <v>999</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="15" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <v>614</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D85" s="18">
         <v>999</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <v>621</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D86" s="18">
         <v>603</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <v>622</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C87" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="18">
+        <v>999</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D87" s="18">
-        <v>999</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>623</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D88" s="18">
         <v>999</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <v>624</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D89" s="18">
         <v>999</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="15" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <v>625</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D90" s="18">
         <v>999</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <v>626</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D91" s="18">
         <v>999</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <v>631</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D92" s="18">
         <v>604</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A93" s="20">
         <v>701</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D93" s="20">
         <v>701</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
         <v>702</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D94" s="20">
         <v>999</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A95" s="20">
         <v>703</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D95" s="20">
         <v>999</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
         <v>704</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D96" s="20">
         <v>999</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A97" s="20">
         <v>705</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D97" s="20">
         <v>999</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A98" s="20">
         <v>706</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D98" s="20">
         <v>999</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="16" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A99" s="20">
         <v>707</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D99" s="20">
         <v>999</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>711</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D100" s="27">
         <v>999</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="30" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>712</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D101" s="27">
         <v>999</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>713</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D102" s="27">
         <v>999</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="30" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>714</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D103" s="27">
         <v>999</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>715</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D104" s="27">
         <v>999</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="30" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>716</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D105" s="27">
         <v>999</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>717</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D106" s="27">
         <v>999</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="30" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>718</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D107" s="27">
         <v>999</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="30" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>719</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D108" s="28">
         <v>999</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>720</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D109" s="27">
         <v>999</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="30" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>721</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D110" s="27">
         <v>999</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>722</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D111" s="27">
         <v>999</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>801</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D112" s="22">
         <v>801</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A113" s="22">
         <v>802</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D113" s="22">
         <v>999</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A114" s="22">
         <v>803</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D114" s="22">
         <v>999</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A115" s="22">
         <v>804</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D115" s="22">
         <v>999</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="17" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A116" s="22">
         <v>805</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D116" s="22">
         <v>999</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A117" s="22">
         <v>811</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D117" s="22">
         <v>802</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A118" s="22">
         <v>812</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D118" s="22">
         <v>999</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A119" s="22">
         <v>813</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D119" s="22">
         <v>999</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A120" s="22">
         <v>814</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D120" s="22">
         <v>999</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A121" s="22">
         <v>815</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D121" s="22">
         <v>999</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A122" s="22">
         <v>821</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D122" s="22">
         <v>803</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="17" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A123" s="22">
         <v>822</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D123" s="22">
         <v>999</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="22">
         <v>823</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D124" s="22">
         <v>999</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A125" s="22">
         <v>824</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D125" s="22">
         <v>999</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A126" s="22">
         <v>825</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D126" s="22">
         <v>999</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A127" s="22">
         <v>826</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D127" s="22">
         <v>999</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A128" s="22">
         <v>827</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D128" s="22">
         <v>999</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="15" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <v>921</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D129" s="18">
         <v>921</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F129" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <v>922</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D130" s="18">
         <v>922</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>923</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D131" s="18">
         <v>923</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <v>924</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D132" s="18">
         <v>924</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <v>925</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D133" s="18">
         <v>925</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
         <v>931</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D134" s="20">
         <v>931</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
         <v>932</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D135" s="20">
         <v>932</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
         <v>933</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D136" s="20">
         <v>933</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20">
         <v>934</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D137" s="20">
         <v>934</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20">
         <v>935</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D138" s="20">
         <v>935</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="17" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="22">
         <v>941</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D139" s="22">
         <v>941</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F139" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22">
         <v>942</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D140" s="22">
         <v>942</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22">
         <v>943</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D141" s="22">
         <v>943</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="22">
         <v>944</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D142" s="22">
         <v>944</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="22">
         <v>945</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D143" s="22">
         <v>945</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0DA8E4-0B23-4FC5-BE13-3BB308324B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E75DE-9CC3-45AC-B630-70B89B8BD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1911,11 +1911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Today's battle requires the defense of two strategic points near the hills.
-Echo: warning the enemy has approached us, it is expected to appear in 1 minute.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>New character - Echo: the position is scout and signalman, was a marathon champion in 1942, not very strong in combat, can deploy ammo boxes, and is characterized by fast running.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2046,6 +2041,11 @@
 Some Fortifications can only be built by certain units.
 To build a Fortification,  click on a tile occupied by one of your units. A dialogue box with a crossed wrench and hammer will appear. This is the Construction Button.
 Now on the tile with &lt;b&gt;&lt;color=green&gt;Kicks&lt;/color&gt;&lt;/b&gt; (you can move Kicks to a different tile first, if you prefer), click on the tile and then the Construction Button to set a &lt;b&gt;&lt;color=red&gt;Med Kit&lt;/color&gt;&lt;/b&gt; on that tile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today's battle requires the defense of two strategic points near the hills.
+Echo: warning the enemy has approached us, they can be here any time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,21 +2540,21 @@
   <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="105.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="6"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>202</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>203</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>204</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>211</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>212</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>213</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>214</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>215</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>216</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>217</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>221</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>194</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="1">
         <v>31</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>222</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>196</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D21" s="1">
         <v>32</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>223</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>199</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D22" s="1">
         <v>33</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>224</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>201</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D23" s="1">
         <v>34</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>225</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>203</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D24" s="1">
         <v>35</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>226</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>205</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D25" s="1">
         <v>36</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>227</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" s="1">
         <v>37</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>228</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>209</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D27" s="1">
         <v>38</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>229</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D28" s="1">
         <v>39</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>230</v>
       </c>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>301</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>302</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>303</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>304</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="35" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="35" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>305</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="35" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="35" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>306</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="35" customFormat="1" ht="190.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="35" customFormat="1" ht="190.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>307</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="35" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="35" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>308</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="35" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="35" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>309</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="35" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="35" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>310</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="35" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="35" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>311</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="35" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="35" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>312</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>401</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>402</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>403</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>404</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>405</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>406</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>407</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>408</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>409</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>501</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>502</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>503</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>504</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>505</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>506</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>507</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>508</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>510</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>511</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>512</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>513</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>514</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>515</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>516</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>517</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>518</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>519</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>520</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>521</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>522</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>523</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>524</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>173</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D73" s="8">
         <v>52</v>
@@ -4024,7 +4024,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>525</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>526</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>527</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>601</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>602</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>603</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>604</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>605</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>611</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>612</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>613</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>614</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>621</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>622</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>623</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>624</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>625</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>626</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <v>631</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>701</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="16" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>702</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>703</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="16" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>704</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" s="16" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>705</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" s="16" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>706</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="16" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" s="16" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>707</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
         <v>711</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="30" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
         <v>712</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
         <v>713</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="30" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
         <v>714</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A104" s="27">
         <v>715</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="30" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="30" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
         <v>716</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="30" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A106" s="27">
         <v>717</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="30" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A107" s="27">
         <v>718</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="30" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="30" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A108" s="27">
         <v>719</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A109" s="27">
         <v>720</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="30" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="30" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A110" s="27">
         <v>721</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="30" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="30" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A111" s="27">
         <v>722</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <v>801</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <v>802</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <v>803</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <v>804</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="17" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="17" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <v>805</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>811</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <v>812</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>813</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>814</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="17" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="17" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>815</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>821</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="17" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="17" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <v>822</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>823</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>824</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>825</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="17" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>826</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="17" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="17" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>827</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="15" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <v>921</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>234</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="D129" s="18">
         <v>921</v>
@@ -5144,7 +5144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <v>922</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>235</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D130" s="18">
         <v>922</v>
@@ -5161,10 +5161,10 @@
         <v>227</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <v>923</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>232</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D131" s="18">
         <v>923</v>
@@ -5184,7 +5184,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <v>924</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>233</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D132" s="18">
         <v>924</v>
@@ -5201,10 +5201,10 @@
         <v>237</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <v>925</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>236</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D133" s="18">
         <v>925</v>
@@ -5224,7 +5224,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>931</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>239</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D134" s="20">
         <v>931</v>
@@ -5241,10 +5241,10 @@
         <v>228</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>932</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>240</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D135" s="20">
         <v>932</v>
@@ -5261,10 +5261,10 @@
         <v>229</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>933</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>244</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D136" s="20">
         <v>933</v>
@@ -5284,7 +5284,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>934</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>242</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D137" s="20">
         <v>934</v>
@@ -5304,7 +5304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>935</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>243</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D138" s="20">
         <v>935</v>
@@ -5324,7 +5324,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="17" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>941</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>241</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D139" s="22">
         <v>941</v>
@@ -5344,7 +5344,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>942</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>251</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D140" s="22">
         <v>942</v>
@@ -5364,7 +5364,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
         <v>943</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>250</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D141" s="22">
         <v>943</v>
@@ -5384,7 +5384,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <v>944</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>249</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D142" s="22">
         <v>944</v>
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <v>945</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>248</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D143" s="22">
         <v>945</v>

--- a/GameDesign/ExcelData/EventResult_Data.xlsx
+++ b/GameDesign/ExcelData/EventResult_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E75DE-9CC3-45AC-B630-70B89B8BD45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54665C90-A9BF-4CAB-BCFE-0FE97CA91F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="451">
   <si>
     <t>long</t>
   </si>
@@ -2046,6 +2046,10 @@
   <si>
     <t>Today's battle requires the defense of two strategic points near the hills.
 Echo: warning the enemy has approached us, they can be here any time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2539,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:XFD139"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3123,7 +3127,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>230</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>216</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="G29" s="34"/>
     </row>
